--- a/01_project/Project_Plan_scrum.xlsx
+++ b/01_project/Project_Plan_scrum.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Day</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -198,6 +198,62 @@
   </si>
   <si>
     <t>TBD??????????????</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9월</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9주차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milestone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +300,23 @@
       <name val="굴림"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -587,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -642,6 +715,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,10 +800,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,95 +817,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1144,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1164,8 +1243,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1173,269 +1253,271 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="24.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="2" customWidth="1"/>
     <col min="5" max="71" width="3.625" style="3" customWidth="1"/>
     <col min="72" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:72" s="57" customFormat="1" ht="26.25">
+      <c r="A1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="43">
-        <v>7</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44">
-        <v>8</v>
-      </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="45">
-        <v>9</v>
-      </c>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="45"/>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
-      <c r="AX1" s="45"/>
-      <c r="AY1" s="45"/>
-      <c r="AZ1" s="45"/>
-      <c r="BA1" s="45"/>
-      <c r="BB1" s="45"/>
-      <c r="BC1" s="45"/>
-      <c r="BD1" s="45"/>
-      <c r="BE1" s="45"/>
-      <c r="BF1" s="45"/>
-      <c r="BG1" s="45"/>
-      <c r="BH1" s="45"/>
-      <c r="BI1" s="45"/>
-      <c r="BJ1" s="45"/>
-      <c r="BK1" s="45"/>
-      <c r="BL1" s="45"/>
-      <c r="BM1" s="45"/>
-      <c r="BN1" s="45"/>
-      <c r="BO1" s="45"/>
-      <c r="BP1" s="45"/>
-      <c r="BQ1" s="45"/>
-      <c r="BR1" s="45"/>
-      <c r="BS1" s="46"/>
-    </row>
-    <row r="2" spans="1:72">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="18"/>
-      <c r="AX2" s="18"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="18"/>
-      <c r="BA2" s="18"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="18"/>
-      <c r="BD2" s="18"/>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18"/>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18"/>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="18"/>
-      <c r="BN2" s="18"/>
-      <c r="BO2" s="18"/>
-      <c r="BP2" s="18"/>
-      <c r="BQ2" s="18"/>
-      <c r="BR2" s="18"/>
-      <c r="BS2" s="19"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="55"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="56"/>
+    </row>
+    <row r="2" spans="1:72" ht="47.25" customHeight="1">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BN2" s="44"/>
+      <c r="BO2" s="44"/>
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="45"/>
     </row>
     <row r="3" spans="1:72">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24">
-        <v>0</v>
-      </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="24">
-        <v>1</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="24">
-        <v>2</v>
-      </c>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="24">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="24">
-        <v>4</v>
-      </c>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="24">
-        <v>5</v>
-      </c>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="24">
-        <v>6</v>
-      </c>
-      <c r="AT3" s="20"/>
-      <c r="AU3" s="20"/>
-      <c r="AV3" s="20"/>
-      <c r="AW3" s="20"/>
-      <c r="AX3" s="20"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="24">
-        <v>7</v>
-      </c>
-      <c r="BA3" s="20"/>
-      <c r="BB3" s="20"/>
-      <c r="BC3" s="20"/>
-      <c r="BD3" s="20"/>
-      <c r="BE3" s="20"/>
-      <c r="BF3" s="25"/>
-      <c r="BG3" s="24">
-        <v>8</v>
-      </c>
-      <c r="BH3" s="20"/>
-      <c r="BI3" s="20"/>
-      <c r="BJ3" s="20"/>
-      <c r="BK3" s="20"/>
-      <c r="BL3" s="20"/>
-      <c r="BM3" s="25"/>
-      <c r="BN3" s="20">
-        <v>9</v>
-      </c>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="20"/>
-      <c r="BQ3" s="20"/>
-      <c r="BR3" s="20"/>
-      <c r="BS3" s="22"/>
+      <c r="E3" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="47"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM3" s="47"/>
+      <c r="AN3" s="47"/>
+      <c r="AO3" s="47"/>
+      <c r="AP3" s="47"/>
+      <c r="AQ3" s="47"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT3" s="47"/>
+      <c r="AU3" s="47"/>
+      <c r="AV3" s="47"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="47"/>
+      <c r="BD3" s="47"/>
+      <c r="BE3" s="47"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" s="47"/>
+      <c r="BI3" s="47"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO3" s="47"/>
+      <c r="BP3" s="47"/>
+      <c r="BQ3" s="47"/>
+      <c r="BR3" s="47"/>
+      <c r="BS3" s="48"/>
       <c r="BT3" s="4"/>
     </row>
     <row r="4" spans="1:72">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1642,26 +1724,26 @@
       </c>
     </row>
     <row r="5" spans="1:72">
-      <c r="A5" s="26">
+      <c r="A5" s="41">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="38" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="6"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="16"/>
@@ -1721,11 +1803,11 @@
       <c r="BS5" s="12"/>
     </row>
     <row r="6" spans="1:72">
-      <c r="A6" s="27"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="13"/>
       <c r="E6" s="16"/>
       <c r="F6" s="6"/>
@@ -1737,15 +1819,15 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="36"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -1796,11 +1878,11 @@
       <c r="BS6" s="12"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="28"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="13"/>
       <c r="E7" s="16"/>
       <c r="F7" s="6"/>
@@ -3990,21 +4072,24 @@
       <c r="BS36" s="12"/>
     </row>
     <row r="37" spans="1:71">
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="1:71">
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+      <c r="AZ38" s="18"/>
+      <c r="BA38" s="18"/>
+      <c r="BB38" s="18"/>
+      <c r="BC38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="K1:AO1"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="A5:A7"/>
@@ -4021,9 +4106,6 @@
     <mergeCell ref="AE3:AK3"/>
     <mergeCell ref="AL3:AR3"/>
     <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="E1:J1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4036,7 +4118,7 @@
   <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4046,398 +4128,398 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="42"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="33"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="29">
         <v>1000</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="36"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B11" s="31"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="33"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B12" s="31"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="41" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41" t="s">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="41" t="s">
+      <c r="K12" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="41"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="33"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="38"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="38">
+      <c r="D13" s="27"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="27">
         <v>500</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="21"/>
+      <c r="H13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="38">
+      <c r="D14" s="27"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="27">
         <v>500</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="38" t="s">
+      <c r="G14" s="21"/>
+      <c r="H14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="38" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="33"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="33"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="31"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="33"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="33"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="33"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="2:14" ht="42.75">
-      <c r="B20" s="31"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="37" t="s">
+      <c r="J20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="37" t="s">
+      <c r="K20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="37"/>
-      <c r="N20" s="33"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="31"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="33"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="31"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="33"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B23" s="34"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4451,7 +4533,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/01_project/Project_Plan_scrum.xlsx
+++ b/01_project/Project_Plan_scrum.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
   <si>
     <t>Day</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,6 +254,22 @@
   </si>
   <si>
     <t>Milestone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여름휴가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문형준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오대명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -654,13 +670,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,9 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +959,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,38 +1010,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,6 +1178,61 @@
         <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>392207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="직선 연결선 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2398059" y="4852148"/>
+          <a:ext cx="8269942" cy="22411"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1241,11 +1543,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BT38"/>
+  <dimension ref="A1:BT39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D27" sqref="D27"/>
+      <selection pane="topRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1258,266 +1560,266 @@
     <col min="72" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="57" customFormat="1" ht="26.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:72" s="39" customFormat="1" ht="26.25">
+      <c r="A1" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55" t="s">
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AQ1" s="55"/>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="55"/>
-      <c r="AU1" s="55"/>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="55"/>
-      <c r="AZ1" s="55"/>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="55"/>
-      <c r="BD1" s="55"/>
-      <c r="BE1" s="55"/>
-      <c r="BF1" s="55"/>
-      <c r="BG1" s="55"/>
-      <c r="BH1" s="55"/>
-      <c r="BI1" s="55"/>
-      <c r="BJ1" s="55"/>
-      <c r="BK1" s="55"/>
-      <c r="BL1" s="55"/>
-      <c r="BM1" s="55"/>
-      <c r="BN1" s="55"/>
-      <c r="BO1" s="55"/>
-      <c r="BP1" s="55"/>
-      <c r="BQ1" s="55"/>
-      <c r="BR1" s="55"/>
-      <c r="BS1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="57"/>
     </row>
     <row r="2" spans="1:72" ht="47.25" customHeight="1">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="44"/>
-      <c r="AF2" s="44"/>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="44"/>
-      <c r="AO2" s="44"/>
-      <c r="AP2" s="44"/>
-      <c r="AQ2" s="44"/>
-      <c r="AR2" s="44"/>
-      <c r="AS2" s="44"/>
-      <c r="AT2" s="44"/>
-      <c r="AU2" s="44"/>
-      <c r="AV2" s="44"/>
-      <c r="AW2" s="44"/>
-      <c r="AX2" s="44"/>
-      <c r="AY2" s="44"/>
-      <c r="AZ2" s="44"/>
-      <c r="BA2" s="44"/>
-      <c r="BB2" s="44"/>
-      <c r="BC2" s="44"/>
-      <c r="BD2" s="44"/>
-      <c r="BE2" s="44"/>
-      <c r="BF2" s="44"/>
-      <c r="BG2" s="44"/>
-      <c r="BH2" s="44"/>
-      <c r="BI2" s="44"/>
-      <c r="BJ2" s="44"/>
-      <c r="BK2" s="44"/>
-      <c r="BL2" s="44"/>
-      <c r="BM2" s="44"/>
-      <c r="BN2" s="44"/>
-      <c r="BO2" s="44"/>
-      <c r="BP2" s="44"/>
-      <c r="BQ2" s="44"/>
-      <c r="BR2" s="44"/>
-      <c r="BS2" s="45"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="51"/>
+      <c r="AU2" s="51"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="51"/>
+      <c r="AX2" s="51"/>
+      <c r="AY2" s="51"/>
+      <c r="AZ2" s="51"/>
+      <c r="BA2" s="51"/>
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="51"/>
+      <c r="BD2" s="51"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="51"/>
+      <c r="BG2" s="51"/>
+      <c r="BH2" s="51"/>
+      <c r="BI2" s="51"/>
+      <c r="BJ2" s="51"/>
+      <c r="BK2" s="51"/>
+      <c r="BL2" s="51"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="51"/>
+      <c r="BO2" s="51"/>
+      <c r="BP2" s="51"/>
+      <c r="BQ2" s="51"/>
+      <c r="BR2" s="51"/>
+      <c r="BS2" s="52"/>
     </row>
     <row r="3" spans="1:72">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="50" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="50" t="s">
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="50" t="s">
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="50" t="s">
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="47"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="50" t="s">
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" s="47"/>
-      <c r="AN3" s="47"/>
-      <c r="AO3" s="47"/>
-      <c r="AP3" s="47"/>
-      <c r="AQ3" s="47"/>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="50" t="s">
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="AT3" s="47"/>
-      <c r="AU3" s="47"/>
-      <c r="AV3" s="47"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="50" t="s">
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="47"/>
-      <c r="BD3" s="47"/>
-      <c r="BE3" s="47"/>
-      <c r="BF3" s="51"/>
-      <c r="BG3" s="50" t="s">
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="BH3" s="47"/>
-      <c r="BI3" s="47"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="51"/>
-      <c r="BN3" s="47" t="s">
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="47"/>
-      <c r="BP3" s="47"/>
-      <c r="BQ3" s="47"/>
-      <c r="BR3" s="47"/>
-      <c r="BS3" s="48"/>
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="54"/>
       <c r="BT3" s="4"/>
     </row>
     <row r="4" spans="1:72">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1563,7 +1865,7 @@
       <c r="R4" s="5">
         <v>8</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="58">
         <v>9</v>
       </c>
       <c r="T4" s="5">
@@ -1584,7 +1886,7 @@
       <c r="Y4" s="5">
         <v>15</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="58">
         <v>16</v>
       </c>
       <c r="AA4" s="5">
@@ -1724,26 +2026,26 @@
       </c>
     </row>
     <row r="5" spans="1:72">
-      <c r="A5" s="41">
+      <c r="A5" s="48">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D5" s="13"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
       <c r="O5" s="6"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="16"/>
@@ -1803,11 +2105,11 @@
       <c r="BS5" s="12"/>
     </row>
     <row r="6" spans="1:72">
-      <c r="A6" s="42"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="13"/>
       <c r="E6" s="16"/>
       <c r="F6" s="6"/>
@@ -1819,15 +2121,15 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="36"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="35"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
@@ -1878,11 +2180,11 @@
       <c r="BS6" s="12"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="43"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="13"/>
       <c r="E7" s="16"/>
       <c r="F7" s="6"/>
@@ -3998,100 +4300,310 @@
       <c r="BR35" s="6"/>
       <c r="BS35" s="12"/>
     </row>
-    <row r="36" spans="1:71">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="16"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="17"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="17"/>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="17"/>
-      <c r="AS36" s="16"/>
-      <c r="AT36" s="6"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="6"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="6"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="16"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="6"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="6"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="17"/>
-      <c r="BG36" s="16"/>
-      <c r="BH36" s="6"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="6"/>
-      <c r="BK36" s="6"/>
-      <c r="BL36" s="6"/>
-      <c r="BM36" s="17"/>
-      <c r="BN36" s="6"/>
-      <c r="BO36" s="6"/>
-      <c r="BP36" s="6"/>
-      <c r="BQ36" s="6"/>
-      <c r="BR36" s="6"/>
-      <c r="BS36" s="12"/>
+    <row r="36" spans="1:71" ht="17.25" thickBot="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="60"/>
+      <c r="AC36" s="60"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="60"/>
+      <c r="AG36" s="60"/>
+      <c r="AH36" s="60"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="60"/>
+      <c r="AK36" s="64"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="60"/>
+      <c r="AN36" s="60"/>
+      <c r="AO36" s="60"/>
+      <c r="AP36" s="60"/>
+      <c r="AQ36" s="60"/>
+      <c r="AR36" s="64"/>
+      <c r="AS36" s="63"/>
+      <c r="AT36" s="60"/>
+      <c r="AU36" s="60"/>
+      <c r="AV36" s="60"/>
+      <c r="AW36" s="60"/>
+      <c r="AX36" s="60"/>
+      <c r="AY36" s="64"/>
+      <c r="AZ36" s="63"/>
+      <c r="BA36" s="60"/>
+      <c r="BB36" s="60"/>
+      <c r="BC36" s="60"/>
+      <c r="BD36" s="60"/>
+      <c r="BE36" s="60"/>
+      <c r="BF36" s="64"/>
+      <c r="BG36" s="63"/>
+      <c r="BH36" s="60"/>
+      <c r="BI36" s="60"/>
+      <c r="BJ36" s="60"/>
+      <c r="BK36" s="60"/>
+      <c r="BL36" s="60"/>
+      <c r="BM36" s="64"/>
+      <c r="BN36" s="60"/>
+      <c r="BO36" s="60"/>
+      <c r="BP36" s="60"/>
+      <c r="BQ36" s="60"/>
+      <c r="BR36" s="60"/>
+      <c r="BS36" s="65"/>
     </row>
     <row r="37" spans="1:71">
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="67"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="66"/>
+      <c r="AT37" s="66"/>
+      <c r="AU37" s="66"/>
+      <c r="AV37" s="66"/>
+      <c r="AW37" s="66"/>
+      <c r="AX37" s="66"/>
+      <c r="AY37" s="66"/>
+      <c r="AZ37" s="66"/>
+      <c r="BA37" s="66"/>
+      <c r="BB37" s="66"/>
+      <c r="BC37" s="66"/>
+      <c r="BD37" s="66"/>
+      <c r="BE37" s="66"/>
+      <c r="BF37" s="66"/>
+      <c r="BG37" s="66"/>
+      <c r="BH37" s="66"/>
+      <c r="BI37" s="66"/>
+      <c r="BJ37" s="66"/>
+      <c r="BK37" s="66"/>
+      <c r="BL37" s="66"/>
+      <c r="BM37" s="66"/>
+      <c r="BN37" s="66"/>
+      <c r="BO37" s="66"/>
+      <c r="BP37" s="66"/>
+      <c r="BQ37" s="66"/>
+      <c r="BR37" s="66"/>
+      <c r="BS37" s="69"/>
     </row>
     <row r="38" spans="1:71">
-      <c r="AX38" s="18"/>
-      <c r="AY38" s="18"/>
-      <c r="AZ38" s="18"/>
-      <c r="BA38" s="18"/>
-      <c r="BB38" s="18"/>
-      <c r="BC38" s="18"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="37"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="59"/>
+      <c r="AY38" s="59"/>
+      <c r="AZ38" s="59"/>
+      <c r="BA38" s="59"/>
+      <c r="BB38" s="59"/>
+      <c r="BC38" s="59"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="6"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="6"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="6"/>
+      <c r="BN38" s="6"/>
+      <c r="BO38" s="6"/>
+      <c r="BP38" s="6"/>
+      <c r="BQ38" s="6"/>
+      <c r="BR38" s="6"/>
+      <c r="BS38" s="17"/>
+    </row>
+    <row r="39" spans="1:71" ht="17.25" thickBot="1">
+      <c r="A39" s="77"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="71"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="70"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="70"/>
+      <c r="R39" s="70"/>
+      <c r="S39" s="70"/>
+      <c r="T39" s="70"/>
+      <c r="U39" s="70"/>
+      <c r="V39" s="70"/>
+      <c r="W39" s="70"/>
+      <c r="X39" s="70"/>
+      <c r="Y39" s="70"/>
+      <c r="Z39" s="70"/>
+      <c r="AA39" s="70"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="70"/>
+      <c r="AE39" s="70"/>
+      <c r="AF39" s="70"/>
+      <c r="AG39" s="70"/>
+      <c r="AH39" s="70"/>
+      <c r="AI39" s="70"/>
+      <c r="AJ39" s="70"/>
+      <c r="AK39" s="70"/>
+      <c r="AL39" s="70"/>
+      <c r="AM39" s="70"/>
+      <c r="AN39" s="70"/>
+      <c r="AO39" s="70"/>
+      <c r="AP39" s="70"/>
+      <c r="AQ39" s="70"/>
+      <c r="AR39" s="70"/>
+      <c r="AS39" s="70"/>
+      <c r="AT39" s="70"/>
+      <c r="AU39" s="70"/>
+      <c r="AV39" s="70"/>
+      <c r="AW39" s="70"/>
+      <c r="AX39" s="70"/>
+      <c r="AY39" s="70"/>
+      <c r="AZ39" s="70"/>
+      <c r="BA39" s="70"/>
+      <c r="BB39" s="70"/>
+      <c r="BC39" s="70"/>
+      <c r="BD39" s="70"/>
+      <c r="BE39" s="70"/>
+      <c r="BF39" s="70"/>
+      <c r="BG39" s="70"/>
+      <c r="BH39" s="70"/>
+      <c r="BI39" s="70"/>
+      <c r="BJ39" s="70"/>
+      <c r="BK39" s="70"/>
+      <c r="BL39" s="70"/>
+      <c r="BM39" s="70"/>
+      <c r="BN39" s="70"/>
+      <c r="BO39" s="70"/>
+      <c r="BP39" s="70"/>
+      <c r="BQ39" s="70"/>
+      <c r="BR39" s="70"/>
+      <c r="BS39" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:AO1"/>
-    <mergeCell ref="C5:C7"/>
+  <mergeCells count="21">
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="E2:BS2"/>
     <mergeCell ref="A1:A4"/>
@@ -4106,10 +4618,16 @@
     <mergeCell ref="AE3:AK3"/>
     <mergeCell ref="AL3:AR3"/>
     <mergeCell ref="AS3:AY3"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:AO1"/>
+    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4128,398 +4646,398 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="31"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <v>1000</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="21"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
     </row>
     <row r="12" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B12" s="20"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30" t="s">
+      <c r="I12" s="29"/>
+      <c r="J12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="22"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="21"/>
     </row>
     <row r="13" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="27">
+      <c r="D13" s="26"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="26">
         <v>500</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="27">
+      <c r="D14" s="26"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="26">
         <v>500</v>
       </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="27" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="27" t="s">
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="22"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="21"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="21"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="22"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="22"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="2:14" ht="42.75">
-      <c r="B20" s="20"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="26" t="s">
+      <c r="L20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="22"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="21"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="22"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="21"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="20"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="22"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="21"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/01_project/Project_Plan_scrum.xlsx
+++ b/01_project/Project_Plan_scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19335" windowHeight="12045" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19335" windowHeight="12045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Scrum" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Day</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,30 +53,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bithum거래소 시세 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코인원거래소 시세 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Korbit거래소시세 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저Account주소로부터 잔고를 조회한다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저Account로부터 Contract로 잔고를 이체해온다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -157,10 +133,6 @@
   </si>
   <si>
     <t>Contract Balance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼버튼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,10 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TBD??????????????</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>7월</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -270,6 +238,40 @@
   </si>
   <si>
     <t>오대명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batch처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래소시세 가져오기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문목록 아키텍쳐 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주문 구조체, 주문목록관리 자료구조
+미체결, 체결 주문에 대한 관리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래소의 시세(eth/krw)를 실시간으로 가져오는 Interface
+ - korbit,bithumb,coinone,phlonix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기적으로 실행되어  신규체결주문, 정산처리 주문에 대한 처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBalance</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,8 +380,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -841,13 +849,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +985,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,12 +1054,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1022,65 +1099,26 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,16 +1225,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>392207</xdr:rowOff>
+      <xdr:rowOff>268942</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>156884</xdr:rowOff>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1205,7 +1243,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2398059" y="4852148"/>
+          <a:off x="5748618" y="4728883"/>
           <a:ext cx="8269942" cy="22411"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1525,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1545,9 +1583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BT39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T14" sqref="T14"/>
+      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1561,265 +1599,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="39" customFormat="1" ht="26.25">
-      <c r="A1" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="53" t="s">
+      <c r="A1" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="75" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="38"/>
-      <c r="E1" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="44"/>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
-      <c r="BS1" s="57"/>
+      <c r="E1" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="76"/>
+      <c r="AW1" s="76"/>
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="76"/>
+      <c r="AZ1" s="76"/>
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="76"/>
+      <c r="BC1" s="76"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="76"/>
+      <c r="BF1" s="76"/>
+      <c r="BG1" s="76"/>
+      <c r="BH1" s="76"/>
+      <c r="BI1" s="76"/>
+      <c r="BJ1" s="76"/>
+      <c r="BK1" s="76"/>
+      <c r="BL1" s="76"/>
+      <c r="BM1" s="76"/>
+      <c r="BN1" s="76"/>
+      <c r="BO1" s="76"/>
+      <c r="BP1" s="76"/>
+      <c r="BQ1" s="76"/>
+      <c r="BR1" s="76"/>
+      <c r="BS1" s="77"/>
     </row>
     <row r="2" spans="1:72" ht="47.25" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="55"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="51"/>
-      <c r="AC2" s="51"/>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="51"/>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="51"/>
-      <c r="AU2" s="51"/>
-      <c r="AV2" s="51"/>
-      <c r="AW2" s="51"/>
-      <c r="AX2" s="51"/>
-      <c r="AY2" s="51"/>
-      <c r="AZ2" s="51"/>
-      <c r="BA2" s="51"/>
-      <c r="BB2" s="51"/>
-      <c r="BC2" s="51"/>
-      <c r="BD2" s="51"/>
-      <c r="BE2" s="51"/>
-      <c r="BF2" s="51"/>
-      <c r="BG2" s="51"/>
-      <c r="BH2" s="51"/>
-      <c r="BI2" s="51"/>
-      <c r="BJ2" s="51"/>
-      <c r="BK2" s="51"/>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51"/>
-      <c r="BP2" s="51"/>
-      <c r="BQ2" s="51"/>
-      <c r="BR2" s="51"/>
-      <c r="BS2" s="52"/>
+        <v>52</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BB2" s="71"/>
+      <c r="BC2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="BL2" s="71"/>
+      <c r="BM2" s="71"/>
+      <c r="BN2" s="71"/>
+      <c r="BO2" s="71"/>
+      <c r="BP2" s="71"/>
+      <c r="BQ2" s="71"/>
+      <c r="BR2" s="71"/>
+      <c r="BS2" s="72"/>
     </row>
     <row r="3" spans="1:72">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="55"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="57"/>
+      <c r="AS3" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT3" s="56"/>
+      <c r="AU3" s="56"/>
+      <c r="AV3" s="56"/>
+      <c r="AW3" s="56"/>
+      <c r="AX3" s="56"/>
+      <c r="AY3" s="57"/>
+      <c r="AZ3" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA3" s="56"/>
+      <c r="BB3" s="56"/>
+      <c r="BC3" s="56"/>
+      <c r="BD3" s="56"/>
+      <c r="BE3" s="56"/>
+      <c r="BF3" s="57"/>
+      <c r="BG3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="40" t="s">
+      <c r="BH3" s="56"/>
+      <c r="BI3" s="56"/>
+      <c r="BJ3" s="56"/>
+      <c r="BK3" s="56"/>
+      <c r="BL3" s="56"/>
+      <c r="BM3" s="57"/>
+      <c r="BN3" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="42"/>
-      <c r="AS3" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="42"/>
-      <c r="AZ3" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="42"/>
-      <c r="BG3" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="42"/>
-      <c r="BN3" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="54"/>
+      <c r="BO3" s="56"/>
+      <c r="BP3" s="56"/>
+      <c r="BQ3" s="56"/>
+      <c r="BR3" s="56"/>
+      <c r="BS3" s="74"/>
       <c r="BT3" s="4"/>
     </row>
     <row r="4" spans="1:72">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1903,7 @@
       <c r="R4" s="5">
         <v>8</v>
       </c>
-      <c r="S4" s="58">
+      <c r="S4" s="40">
         <v>9</v>
       </c>
       <c r="T4" s="5">
@@ -1883,10 +1921,10 @@
       <c r="X4" s="14">
         <v>14</v>
       </c>
-      <c r="Y4" s="5">
+      <c r="Y4" s="79">
         <v>15</v>
       </c>
-      <c r="Z4" s="58">
+      <c r="Z4" s="78">
         <v>16</v>
       </c>
       <c r="AA4" s="5">
@@ -2026,14 +2064,14 @@
       </c>
     </row>
     <row r="5" spans="1:72">
-      <c r="A5" s="48">
+      <c r="A5" s="69">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>37</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="31"/>
@@ -2105,11 +2143,11 @@
       <c r="BS5" s="12"/>
     </row>
     <row r="6" spans="1:72">
-      <c r="A6" s="49"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="46"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="61"/>
       <c r="D6" s="13"/>
       <c r="E6" s="16"/>
       <c r="F6" s="6"/>
@@ -2130,8 +2168,8 @@
       <c r="U6" s="34"/>
       <c r="V6" s="34"/>
       <c r="W6" s="35"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="6"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
@@ -2180,11 +2218,11 @@
       <c r="BS6" s="12"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="50"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="C7" s="62"/>
       <c r="D7" s="13"/>
       <c r="E7" s="16"/>
       <c r="F7" s="6"/>
@@ -2205,18 +2243,16 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="17"/>
-      <c r="X7" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="X7" s="16"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="6"/>
@@ -2550,7 +2586,9 @@
     </row>
     <row r="12" spans="1:72">
       <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="13"/>
       <c r="E12" s="16"/>
@@ -2623,7 +2661,9 @@
     </row>
     <row r="13" spans="1:72">
       <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="13"/>
       <c r="E13" s="16"/>
@@ -2696,7 +2736,9 @@
     </row>
     <row r="14" spans="1:72">
       <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="13"/>
       <c r="E14" s="16"/>
@@ -4301,160 +4343,160 @@
       <c r="BS35" s="12"/>
     </row>
     <row r="36" spans="1:71" ht="17.25" thickBot="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="64"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="60"/>
-      <c r="AD36" s="64"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="64"/>
-      <c r="AL36" s="63"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
-      <c r="AO36" s="60"/>
-      <c r="AP36" s="60"/>
-      <c r="AQ36" s="60"/>
-      <c r="AR36" s="64"/>
-      <c r="AS36" s="63"/>
-      <c r="AT36" s="60"/>
-      <c r="AU36" s="60"/>
-      <c r="AV36" s="60"/>
-      <c r="AW36" s="60"/>
-      <c r="AX36" s="60"/>
-      <c r="AY36" s="64"/>
-      <c r="AZ36" s="63"/>
-      <c r="BA36" s="60"/>
-      <c r="BB36" s="60"/>
-      <c r="BC36" s="60"/>
-      <c r="BD36" s="60"/>
-      <c r="BE36" s="60"/>
-      <c r="BF36" s="64"/>
-      <c r="BG36" s="63"/>
-      <c r="BH36" s="60"/>
-      <c r="BI36" s="60"/>
-      <c r="BJ36" s="60"/>
-      <c r="BK36" s="60"/>
-      <c r="BL36" s="60"/>
-      <c r="BM36" s="64"/>
-      <c r="BN36" s="60"/>
-      <c r="BO36" s="60"/>
-      <c r="BP36" s="60"/>
-      <c r="BQ36" s="60"/>
-      <c r="BR36" s="60"/>
-      <c r="BS36" s="65"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="45"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="45"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="42"/>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="46"/>
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="46"/>
+      <c r="AS36" s="45"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="46"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
+      <c r="BF36" s="46"/>
+      <c r="BG36" s="45"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="42"/>
+      <c r="BJ36" s="42"/>
+      <c r="BK36" s="42"/>
+      <c r="BL36" s="42"/>
+      <c r="BM36" s="46"/>
+      <c r="BN36" s="42"/>
+      <c r="BO36" s="42"/>
+      <c r="BP36" s="42"/>
+      <c r="BQ36" s="42"/>
+      <c r="BR36" s="42"/>
+      <c r="BS36" s="47"/>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="75"/>
-      <c r="B37" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="66"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="66"/>
-      <c r="AT37" s="66"/>
-      <c r="AU37" s="66"/>
-      <c r="AV37" s="66"/>
-      <c r="AW37" s="66"/>
-      <c r="AX37" s="66"/>
-      <c r="AY37" s="66"/>
-      <c r="AZ37" s="66"/>
-      <c r="BA37" s="66"/>
-      <c r="BB37" s="66"/>
-      <c r="BC37" s="66"/>
-      <c r="BD37" s="66"/>
-      <c r="BE37" s="66"/>
-      <c r="BF37" s="66"/>
-      <c r="BG37" s="66"/>
-      <c r="BH37" s="66"/>
-      <c r="BI37" s="66"/>
-      <c r="BJ37" s="66"/>
-      <c r="BK37" s="66"/>
-      <c r="BL37" s="66"/>
-      <c r="BM37" s="66"/>
-      <c r="BN37" s="66"/>
-      <c r="BO37" s="66"/>
-      <c r="BP37" s="66"/>
-      <c r="BQ37" s="66"/>
-      <c r="BR37" s="66"/>
-      <c r="BS37" s="69"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="49"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="48"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="48"/>
+      <c r="AY37" s="48"/>
+      <c r="AZ37" s="48"/>
+      <c r="BA37" s="48"/>
+      <c r="BB37" s="48"/>
+      <c r="BC37" s="48"/>
+      <c r="BD37" s="48"/>
+      <c r="BE37" s="48"/>
+      <c r="BF37" s="48"/>
+      <c r="BG37" s="48"/>
+      <c r="BH37" s="48"/>
+      <c r="BI37" s="48"/>
+      <c r="BJ37" s="48"/>
+      <c r="BK37" s="48"/>
+      <c r="BL37" s="48"/>
+      <c r="BM37" s="48"/>
+      <c r="BN37" s="48"/>
+      <c r="BO37" s="48"/>
+      <c r="BP37" s="48"/>
+      <c r="BQ37" s="48"/>
+      <c r="BR37" s="48"/>
+      <c r="BS37" s="51"/>
     </row>
     <row r="38" spans="1:71">
-      <c r="A38" s="76"/>
-      <c r="B38" s="49"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="6"/>
@@ -4502,12 +4544,12 @@
       <c r="AU38" s="6"/>
       <c r="AV38" s="6"/>
       <c r="AW38" s="6"/>
-      <c r="AX38" s="59"/>
-      <c r="AY38" s="59"/>
-      <c r="AZ38" s="59"/>
-      <c r="BA38" s="59"/>
-      <c r="BB38" s="59"/>
-      <c r="BC38" s="59"/>
+      <c r="AX38" s="41"/>
+      <c r="AY38" s="41"/>
+      <c r="AZ38" s="41"/>
+      <c r="BA38" s="41"/>
+      <c r="BB38" s="41"/>
+      <c r="BC38" s="41"/>
       <c r="BD38" s="6"/>
       <c r="BE38" s="6"/>
       <c r="BF38" s="6"/>
@@ -4526,79 +4568,79 @@
       <c r="BS38" s="17"/>
     </row>
     <row r="39" spans="1:71" ht="17.25" thickBot="1">
-      <c r="A39" s="77"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="70"/>
-      <c r="I39" s="70"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="70"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="70"/>
-      <c r="R39" s="70"/>
-      <c r="S39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="U39" s="70"/>
-      <c r="V39" s="70"/>
-      <c r="W39" s="70"/>
-      <c r="X39" s="70"/>
-      <c r="Y39" s="70"/>
-      <c r="Z39" s="70"/>
-      <c r="AA39" s="70"/>
-      <c r="AB39" s="70"/>
-      <c r="AC39" s="70"/>
-      <c r="AD39" s="70"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="70"/>
-      <c r="AG39" s="70"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="70"/>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="70"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="70"/>
-      <c r="AO39" s="70"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="70"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="70"/>
-      <c r="AT39" s="70"/>
-      <c r="AU39" s="70"/>
-      <c r="AV39" s="70"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="70"/>
-      <c r="AY39" s="70"/>
-      <c r="AZ39" s="70"/>
-      <c r="BA39" s="70"/>
-      <c r="BB39" s="70"/>
-      <c r="BC39" s="70"/>
-      <c r="BD39" s="70"/>
-      <c r="BE39" s="70"/>
-      <c r="BF39" s="70"/>
-      <c r="BG39" s="70"/>
-      <c r="BH39" s="70"/>
-      <c r="BI39" s="70"/>
-      <c r="BJ39" s="70"/>
-      <c r="BK39" s="70"/>
-      <c r="BL39" s="70"/>
-      <c r="BM39" s="70"/>
-      <c r="BN39" s="70"/>
-      <c r="BO39" s="70"/>
-      <c r="BP39" s="70"/>
-      <c r="BQ39" s="70"/>
-      <c r="BR39" s="70"/>
-      <c r="BS39" s="72"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="53"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
+      <c r="R39" s="52"/>
+      <c r="S39" s="52"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="52"/>
+      <c r="V39" s="52"/>
+      <c r="W39" s="52"/>
+      <c r="X39" s="52"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="52"/>
+      <c r="AA39" s="52"/>
+      <c r="AB39" s="52"/>
+      <c r="AC39" s="52"/>
+      <c r="AD39" s="52"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="52"/>
+      <c r="AG39" s="52"/>
+      <c r="AH39" s="52"/>
+      <c r="AI39" s="52"/>
+      <c r="AJ39" s="52"/>
+      <c r="AK39" s="52"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="52"/>
+      <c r="AN39" s="52"/>
+      <c r="AO39" s="52"/>
+      <c r="AP39" s="52"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="52"/>
+      <c r="AS39" s="52"/>
+      <c r="AT39" s="52"/>
+      <c r="AU39" s="52"/>
+      <c r="AV39" s="52"/>
+      <c r="AW39" s="52"/>
+      <c r="AX39" s="52"/>
+      <c r="AY39" s="52"/>
+      <c r="AZ39" s="52"/>
+      <c r="BA39" s="52"/>
+      <c r="BB39" s="52"/>
+      <c r="BC39" s="52"/>
+      <c r="BD39" s="52"/>
+      <c r="BE39" s="52"/>
+      <c r="BF39" s="52"/>
+      <c r="BG39" s="52"/>
+      <c r="BH39" s="52"/>
+      <c r="BI39" s="52"/>
+      <c r="BJ39" s="52"/>
+      <c r="BK39" s="52"/>
+      <c r="BL39" s="52"/>
+      <c r="BM39" s="52"/>
+      <c r="BN39" s="52"/>
+      <c r="BO39" s="52"/>
+      <c r="BP39" s="52"/>
+      <c r="BQ39" s="52"/>
+      <c r="BR39" s="52"/>
+      <c r="BS39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4635,8 +4677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4647,7 +4689,7 @@
     <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:14" ht="17.25" thickBot="1">
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -4665,12 +4707,12 @@
     <row r="3" spans="2:14" ht="17.25" thickBot="1">
       <c r="B3" s="19"/>
       <c r="C3" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="20"/>
       <c r="F3" s="26" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
@@ -4684,7 +4726,7 @@
     <row r="4" spans="2:14">
       <c r="B4" s="19"/>
       <c r="C4" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" s="28">
         <v>1000</v>
@@ -4777,7 +4819,7 @@
     </row>
     <row r="10" spans="2:14" ht="13.5" customHeight="1">
       <c r="B10" s="19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -4795,7 +4837,7 @@
     <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
       <c r="B11" s="19"/>
       <c r="C11" s="20" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4813,22 +4855,22 @@
       <c r="B12" s="19"/>
       <c r="C12" s="18"/>
       <c r="D12" s="29" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="30"/>
@@ -4837,7 +4879,7 @@
     <row r="13" spans="2:14" ht="17.25" thickBot="1">
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="20"/>
@@ -4846,19 +4888,21 @@
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="27" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="26"/>
       <c r="K13" s="26"/>
       <c r="L13" s="20"/>
       <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="26" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="17.25" thickBot="1">
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="20"/>
@@ -4867,15 +4911,13 @@
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="26" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="26" t="s">
-        <v>23</v>
-      </c>
+      <c r="M14" s="83"/>
       <c r="N14" s="21"/>
     </row>
     <row r="15" spans="2:14" ht="17.25" thickBot="1">
@@ -4925,7 +4967,7 @@
     </row>
     <row r="18" spans="2:14">
       <c r="B18" s="19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -4943,7 +4985,7 @@
     <row r="19" spans="2:14">
       <c r="B19" s="19"/>
       <c r="C19" s="20" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
@@ -4961,31 +5003,31 @@
       <c r="B20" s="19"/>
       <c r="C20" s="8"/>
       <c r="D20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="K20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="L20" s="25" t="s">
         <v>26</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>32</v>
       </c>
       <c r="M20" s="25"/>
       <c r="N20" s="21"/>
@@ -4993,7 +5035,7 @@
     <row r="21" spans="2:14">
       <c r="B21" s="19"/>
       <c r="C21" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -5010,7 +5052,7 @@
     <row r="22" spans="2:14">
       <c r="B22" s="19"/>
       <c r="C22" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
@@ -5048,21 +5090,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="70.375" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="79.75" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -5070,197 +5113,221 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:5" ht="33">
       <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="33">
       <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="C6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="5">
         <v>77</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="5">
         <v>78</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="5">
         <v>79</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="C20" s="8"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="C21" s="8"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="C23" s="8"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="8"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="C25" s="8"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="C26" s="8"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="C27" s="8"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5273,7 +5340,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/01_project/Project_Plan_scrum.xlsx
+++ b/01_project/Project_Plan_scrum.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19335" windowHeight="12045" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="19335" windowHeight="12045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scrum" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
   <si>
     <t>Day</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -33,14 +33,6 @@
   </si>
   <si>
     <t>제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>중요도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -241,24 +233,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Batch처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>거래소시세 가져오기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주문목록 아키텍쳐 설계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">주문 구조체, 주문목록관리 자료구조
-미체결, 체결 주문에 대한 관리 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -267,11 +246,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>주기적으로 실행되어  신규체결주문, 정산처리 주문에 대한 처리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>getBalance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문형준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성훈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래소시세(3개) 및 평균시세조회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발환경 구축</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문정산시 송금(Contract -&gt; EOA)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문체결시 송금(EOA -&gt; Contract)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송금1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>송금2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배열전송(Back-&gt;Front)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문대장 배열을 화면에서 조회처리(체결목록)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문대장 배열을 화면에서 조회처리(정산목록)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solidity 로그 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 설계1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료구조 설계2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문, 주문대장 구조체 정의</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문대장 자료구조 설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오대명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만기도래 주문을 정산 후 송금</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정산로직(배분, 수수료처리)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문대장 배열을 화면에서 조회처리(대기목록)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문체결</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 주문 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 주문 체결</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -279,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,8 +447,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +505,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -859,12 +995,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,9 +1031,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -994,9 +1130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,12 +1163,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1054,74 +1256,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1225,16 +1401,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>134474</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>268942</xdr:rowOff>
+      <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>145676</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>156885</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1243,7 +1419,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5748618" y="4728883"/>
+          <a:off x="11642915" y="4605619"/>
           <a:ext cx="8269942" cy="22411"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1563,7 +1739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -1584,284 +1760,290 @@
   <dimension ref="A1:BT39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE7" sqref="AE7"/>
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="24.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="8" style="2" customWidth="1"/>
-    <col min="5" max="71" width="3.625" style="3" customWidth="1"/>
+    <col min="5" max="30" width="3.625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="3.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="36" width="3.625" style="3" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="3.625" style="3" customWidth="1"/>
+    <col min="38" max="43" width="3.625" style="3" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="5.5" style="3" customWidth="1"/>
+    <col min="45" max="71" width="3.625" style="3" customWidth="1"/>
     <col min="72" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="39" customFormat="1" ht="26.25">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:72" s="38" customFormat="1" ht="26.25">
+      <c r="A1" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="58" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="80"/>
+      <c r="AJ1" s="80"/>
+      <c r="AK1" s="80"/>
+      <c r="AL1" s="80"/>
+      <c r="AM1" s="80"/>
+      <c r="AN1" s="80"/>
+      <c r="AO1" s="80"/>
+      <c r="AP1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="AQ1" s="75"/>
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="75"/>
+      <c r="AV1" s="75"/>
+      <c r="AW1" s="75"/>
+      <c r="AX1" s="75"/>
+      <c r="AY1" s="75"/>
+      <c r="AZ1" s="75"/>
+      <c r="BA1" s="75"/>
+      <c r="BB1" s="75"/>
+      <c r="BC1" s="75"/>
+      <c r="BD1" s="75"/>
+      <c r="BE1" s="75"/>
+      <c r="BF1" s="75"/>
+      <c r="BG1" s="75"/>
+      <c r="BH1" s="75"/>
+      <c r="BI1" s="75"/>
+      <c r="BJ1" s="75"/>
+      <c r="BK1" s="75"/>
+      <c r="BL1" s="75"/>
+      <c r="BM1" s="75"/>
+      <c r="BN1" s="75"/>
+      <c r="BO1" s="75"/>
+      <c r="BP1" s="75"/>
+      <c r="BQ1" s="75"/>
+      <c r="BR1" s="75"/>
+      <c r="BS1" s="76"/>
+    </row>
+    <row r="2" spans="1:72" ht="47.25" customHeight="1">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="69"/>
+      <c r="AQ2" s="69"/>
+      <c r="AR2" s="69"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="69"/>
+      <c r="AU2" s="69"/>
+      <c r="AV2" s="69"/>
+      <c r="AW2" s="69"/>
+      <c r="AX2" s="69"/>
+      <c r="AY2" s="69"/>
+      <c r="AZ2" s="69"/>
+      <c r="BA2" s="69"/>
+      <c r="BB2" s="69"/>
+      <c r="BC2" s="69"/>
+      <c r="BD2" s="69"/>
+      <c r="BE2" s="69"/>
+      <c r="BF2" s="69"/>
+      <c r="BG2" s="69"/>
+      <c r="BH2" s="69"/>
+      <c r="BI2" s="69"/>
+      <c r="BJ2" s="69"/>
+      <c r="BK2" s="69"/>
+      <c r="BL2" s="69"/>
+      <c r="BM2" s="69"/>
+      <c r="BN2" s="69"/>
+      <c r="BO2" s="69"/>
+      <c r="BP2" s="69"/>
+      <c r="BQ2" s="69"/>
+      <c r="BR2" s="69"/>
+      <c r="BS2" s="70"/>
+    </row>
+    <row r="3" spans="1:72">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="59"/>
-      <c r="AN1" s="59"/>
-      <c r="AO1" s="59"/>
-      <c r="AP1" s="76" t="s">
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
-      <c r="BJ1" s="76"/>
-      <c r="BK1" s="76"/>
-      <c r="BL1" s="76"/>
-      <c r="BM1" s="76"/>
-      <c r="BN1" s="76"/>
-      <c r="BO1" s="76"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
-      <c r="BR1" s="76"/>
-      <c r="BS1" s="77"/>
-    </row>
-    <row r="2" spans="1:72" ht="47.25" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BB2" s="71"/>
-      <c r="BC2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="BL2" s="71"/>
-      <c r="BM2" s="71"/>
-      <c r="BN2" s="71"/>
-      <c r="BO2" s="71"/>
-      <c r="BP2" s="71"/>
-      <c r="BQ2" s="71"/>
-      <c r="BR2" s="71"/>
-      <c r="BS2" s="72"/>
-    </row>
-    <row r="3" spans="1:72">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="55" t="s">
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="55" t="s">
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="55" t="s">
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="55" t="s">
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="Y3" s="56"/>
-      <c r="Z3" s="56"/>
-      <c r="AA3" s="56"/>
-      <c r="AB3" s="56"/>
-      <c r="AC3" s="56"/>
-      <c r="AD3" s="57"/>
-      <c r="AE3" s="55" t="s">
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="57"/>
-      <c r="AL3" s="55" t="s">
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="57"/>
-      <c r="AS3" s="55" t="s">
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="AT3" s="56"/>
-      <c r="AU3" s="56"/>
-      <c r="AV3" s="56"/>
-      <c r="AW3" s="56"/>
-      <c r="AX3" s="56"/>
-      <c r="AY3" s="57"/>
-      <c r="AZ3" s="55" t="s">
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BA3" s="56"/>
-      <c r="BB3" s="56"/>
-      <c r="BC3" s="56"/>
-      <c r="BD3" s="56"/>
-      <c r="BE3" s="56"/>
-      <c r="BF3" s="57"/>
-      <c r="BG3" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="BH3" s="56"/>
-      <c r="BI3" s="56"/>
-      <c r="BJ3" s="56"/>
-      <c r="BK3" s="56"/>
-      <c r="BL3" s="56"/>
-      <c r="BM3" s="57"/>
-      <c r="BN3" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="BO3" s="56"/>
-      <c r="BP3" s="56"/>
-      <c r="BQ3" s="56"/>
-      <c r="BR3" s="56"/>
-      <c r="BS3" s="74"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="73"/>
       <c r="BT3" s="4"/>
     </row>
     <row r="4" spans="1:72">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="13" t="s">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>26</v>
       </c>
       <c r="F4" s="5">
@@ -1873,10 +2055,10 @@
       <c r="H4" s="5">
         <v>29</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>30</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>31</v>
       </c>
       <c r="K4" s="5">
@@ -1894,16 +2076,16 @@
       <c r="O4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="14">
         <v>6</v>
       </c>
-      <c r="Q4" s="14">
+      <c r="Q4" s="13">
         <v>7</v>
       </c>
       <c r="R4" s="5">
         <v>8</v>
       </c>
-      <c r="S4" s="40">
+      <c r="S4" s="39">
         <v>9</v>
       </c>
       <c r="T4" s="5">
@@ -1915,16 +2097,16 @@
       <c r="V4" s="5">
         <v>12</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="14">
         <v>13</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="13">
         <v>14</v>
       </c>
-      <c r="Y4" s="79">
+      <c r="Y4" s="55">
         <v>15</v>
       </c>
-      <c r="Z4" s="78">
+      <c r="Z4" s="54">
         <v>16</v>
       </c>
       <c r="AA4" s="5">
@@ -1936,10 +2118,10 @@
       <c r="AC4" s="5">
         <v>19</v>
       </c>
-      <c r="AD4" s="15">
+      <c r="AD4" s="14">
         <v>20</v>
       </c>
-      <c r="AE4" s="14">
+      <c r="AE4" s="13">
         <v>21</v>
       </c>
       <c r="AF4" s="5">
@@ -1957,10 +2139,10 @@
       <c r="AJ4" s="5">
         <v>26</v>
       </c>
-      <c r="AK4" s="15">
+      <c r="AK4" s="14">
         <v>27</v>
       </c>
-      <c r="AL4" s="14">
+      <c r="AL4" s="13">
         <v>28</v>
       </c>
       <c r="AM4" s="5">
@@ -1978,10 +2160,10 @@
       <c r="AQ4" s="5">
         <v>2</v>
       </c>
-      <c r="AR4" s="15">
+      <c r="AR4" s="14">
         <v>3</v>
       </c>
-      <c r="AS4" s="14">
+      <c r="AS4" s="13">
         <v>4</v>
       </c>
       <c r="AT4" s="5">
@@ -1999,10 +2181,10 @@
       <c r="AX4" s="5">
         <v>9</v>
       </c>
-      <c r="AY4" s="15">
+      <c r="AY4" s="14">
         <v>10</v>
       </c>
-      <c r="AZ4" s="14">
+      <c r="AZ4" s="13">
         <v>11</v>
       </c>
       <c r="BA4" s="5">
@@ -2020,10 +2202,10 @@
       <c r="BE4" s="5">
         <v>16</v>
       </c>
-      <c r="BF4" s="15">
+      <c r="BF4" s="14">
         <v>17</v>
       </c>
-      <c r="BG4" s="14">
+      <c r="BG4" s="13">
         <v>18</v>
       </c>
       <c r="BH4" s="5">
@@ -2041,7 +2223,7 @@
       <c r="BL4" s="5">
         <v>23</v>
       </c>
-      <c r="BM4" s="15">
+      <c r="BM4" s="14">
         <v>24</v>
       </c>
       <c r="BN4" s="5">
@@ -2059,2446 +2241,2447 @@
       <c r="BR4" s="5">
         <v>29</v>
       </c>
-      <c r="BS4" s="11">
+      <c r="BS4" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:72">
-      <c r="A5" s="69">
+      <c r="A5" s="67">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+        <v>31</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="15"/>
       <c r="Y5" s="6"/>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
       <c r="AC5" s="6"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="15"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="16"/>
+      <c r="AK5" s="16"/>
+      <c r="AL5" s="15"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
       <c r="AO5" s="6"/>
       <c r="AP5" s="6"/>
       <c r="AQ5" s="6"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="15"/>
       <c r="AT5" s="6"/>
       <c r="AU5" s="6"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="15"/>
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="6"/>
       <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
-      <c r="BF5" s="17"/>
-      <c r="BG5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="15"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
       <c r="BJ5" s="6"/>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
-      <c r="BM5" s="17"/>
+      <c r="BM5" s="16"/>
       <c r="BN5" s="6"/>
       <c r="BO5" s="6"/>
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6"/>
       <c r="BR5" s="6"/>
-      <c r="BS5" s="12"/>
+      <c r="BS5" s="11"/>
     </row>
     <row r="6" spans="1:72">
-      <c r="A6" s="64"/>
+      <c r="A6" s="62"/>
       <c r="B6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="15"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
       <c r="AC6" s="6"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="15"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="6"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="15"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6"/>
       <c r="AO6" s="6"/>
       <c r="AP6" s="6"/>
       <c r="AQ6" s="6"/>
-      <c r="AR6" s="17"/>
-      <c r="AS6" s="16"/>
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="15"/>
       <c r="AT6" s="6"/>
       <c r="AU6" s="6"/>
       <c r="AV6" s="6"/>
       <c r="AW6" s="6"/>
       <c r="AX6" s="6"/>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="16"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="15"/>
       <c r="BA6" s="6"/>
       <c r="BB6" s="6"/>
       <c r="BC6" s="6"/>
       <c r="BD6" s="6"/>
       <c r="BE6" s="6"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="15"/>
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="6"/>
-      <c r="BM6" s="17"/>
+      <c r="BM6" s="16"/>
       <c r="BN6" s="6"/>
       <c r="BO6" s="6"/>
       <c r="BP6" s="6"/>
       <c r="BQ6" s="6"/>
       <c r="BR6" s="6"/>
-      <c r="BS6" s="12"/>
+      <c r="BS6" s="11"/>
     </row>
     <row r="7" spans="1:72">
-      <c r="A7" s="70"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="15"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="17"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="58"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
-      <c r="AY7" s="17"/>
-      <c r="AZ7" s="16"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="15"/>
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="6"/>
       <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
-      <c r="BF7" s="17"/>
-      <c r="BG7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="15"/>
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
       <c r="BL7" s="6"/>
-      <c r="BM7" s="17"/>
+      <c r="BM7" s="16"/>
       <c r="BN7" s="6"/>
       <c r="BO7" s="6"/>
       <c r="BP7" s="6"/>
       <c r="BQ7" s="6"/>
       <c r="BR7" s="6"/>
-      <c r="BS7" s="12"/>
+      <c r="BS7" s="11"/>
     </row>
     <row r="8" spans="1:72">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="89"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="6"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="92"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="91"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="15"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="15"/>
       <c r="AM8" s="6"/>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6"/>
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
-      <c r="AR8" s="17"/>
-      <c r="AS8" s="16"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="15"/>
       <c r="AT8" s="6"/>
       <c r="AU8" s="6"/>
       <c r="AV8" s="6"/>
       <c r="AW8" s="6"/>
       <c r="AX8" s="6"/>
-      <c r="AY8" s="17"/>
-      <c r="AZ8" s="16"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="15"/>
       <c r="BA8" s="6"/>
       <c r="BB8" s="6"/>
       <c r="BC8" s="6"/>
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="16"/>
+      <c r="BF8" s="16"/>
+      <c r="BG8" s="15"/>
       <c r="BH8" s="6"/>
       <c r="BI8" s="6"/>
       <c r="BJ8" s="6"/>
       <c r="BK8" s="6"/>
       <c r="BL8" s="6"/>
-      <c r="BM8" s="17"/>
+      <c r="BM8" s="16"/>
       <c r="BN8" s="6"/>
       <c r="BO8" s="6"/>
       <c r="BP8" s="6"/>
       <c r="BQ8" s="6"/>
       <c r="BR8" s="6"/>
-      <c r="BS8" s="12"/>
+      <c r="BS8" s="11"/>
     </row>
     <row r="9" spans="1:72">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
-      <c r="AO9" s="6"/>
-      <c r="AP9" s="6"/>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="6"/>
-      <c r="AU9" s="6"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="95"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="96"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="94"/>
+      <c r="AI9" s="94"/>
+      <c r="AJ9" s="94"/>
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="94"/>
+      <c r="AN9" s="94"/>
+      <c r="AO9" s="94"/>
+      <c r="AP9" s="94"/>
+      <c r="AQ9" s="94"/>
+      <c r="AR9" s="95"/>
+      <c r="AS9" s="96"/>
+      <c r="AT9" s="94"/>
+      <c r="AU9" s="94"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="15"/>
       <c r="BA9" s="6"/>
       <c r="BB9" s="6"/>
       <c r="BC9" s="6"/>
       <c r="BD9" s="6"/>
       <c r="BE9" s="6"/>
-      <c r="BF9" s="17"/>
-      <c r="BG9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="15"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
       <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
       <c r="BL9" s="6"/>
-      <c r="BM9" s="17"/>
+      <c r="BM9" s="16"/>
       <c r="BN9" s="6"/>
       <c r="BO9" s="6"/>
       <c r="BP9" s="6"/>
       <c r="BQ9" s="6"/>
       <c r="BR9" s="6"/>
-      <c r="BS9" s="12"/>
+      <c r="BS9" s="11"/>
     </row>
     <row r="10" spans="1:72">
-      <c r="A10" s="6"/>
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="15"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="15"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
-      <c r="AD10" s="17"/>
-      <c r="AE10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="15"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="15"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6"/>
       <c r="AO10" s="6"/>
       <c r="AP10" s="6"/>
       <c r="AQ10" s="6"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="15"/>
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
       <c r="AV10" s="6"/>
       <c r="AW10" s="6"/>
       <c r="AX10" s="6"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="15"/>
       <c r="BA10" s="6"/>
       <c r="BB10" s="6"/>
       <c r="BC10" s="6"/>
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
-      <c r="BF10" s="17"/>
-      <c r="BG10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="15"/>
       <c r="BH10" s="6"/>
       <c r="BI10" s="6"/>
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="6"/>
-      <c r="BM10" s="17"/>
+      <c r="BM10" s="16"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="6"/>
       <c r="BP10" s="6"/>
       <c r="BQ10" s="6"/>
       <c r="BR10" s="6"/>
-      <c r="BS10" s="12"/>
+      <c r="BS10" s="11"/>
     </row>
     <row r="11" spans="1:72">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="15"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="15"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="15"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6"/>
       <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="16"/>
+      <c r="AK11" s="16"/>
+      <c r="AL11" s="15"/>
       <c r="AM11" s="6"/>
       <c r="AN11" s="6"/>
       <c r="AO11" s="6"/>
       <c r="AP11" s="6"/>
       <c r="AQ11" s="6"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="16"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="15"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
       <c r="AV11" s="6"/>
       <c r="AW11" s="6"/>
       <c r="AX11" s="6"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="16"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="15"/>
       <c r="BA11" s="6"/>
       <c r="BB11" s="6"/>
       <c r="BC11" s="6"/>
       <c r="BD11" s="6"/>
       <c r="BE11" s="6"/>
-      <c r="BF11" s="17"/>
-      <c r="BG11" s="16"/>
+      <c r="BF11" s="16"/>
+      <c r="BG11" s="15"/>
       <c r="BH11" s="6"/>
       <c r="BI11" s="6"/>
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
       <c r="BL11" s="6"/>
-      <c r="BM11" s="17"/>
+      <c r="BM11" s="16"/>
       <c r="BN11" s="6"/>
       <c r="BO11" s="6"/>
       <c r="BP11" s="6"/>
       <c r="BQ11" s="6"/>
       <c r="BR11" s="6"/>
-      <c r="BS11" s="12"/>
+      <c r="BS11" s="11"/>
     </row>
     <row r="12" spans="1:72">
       <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="15"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="15"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
       <c r="AC12" s="6"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="15"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="16"/>
+      <c r="AK12" s="16"/>
+      <c r="AL12" s="15"/>
       <c r="AM12" s="6"/>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6"/>
       <c r="AP12" s="6"/>
       <c r="AQ12" s="6"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="15"/>
       <c r="AT12" s="6"/>
       <c r="AU12" s="6"/>
       <c r="AV12" s="6"/>
       <c r="AW12" s="6"/>
       <c r="AX12" s="6"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="16"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="15"/>
       <c r="BA12" s="6"/>
       <c r="BB12" s="6"/>
       <c r="BC12" s="6"/>
       <c r="BD12" s="6"/>
       <c r="BE12" s="6"/>
-      <c r="BF12" s="17"/>
-      <c r="BG12" s="16"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="15"/>
       <c r="BH12" s="6"/>
       <c r="BI12" s="6"/>
       <c r="BJ12" s="6"/>
       <c r="BK12" s="6"/>
       <c r="BL12" s="6"/>
-      <c r="BM12" s="17"/>
+      <c r="BM12" s="16"/>
       <c r="BN12" s="6"/>
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
       <c r="BQ12" s="6"/>
       <c r="BR12" s="6"/>
-      <c r="BS12" s="12"/>
+      <c r="BS12" s="11"/>
     </row>
     <row r="13" spans="1:72">
       <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="15"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="15"/>
       <c r="Y13" s="6"/>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
       <c r="AC13" s="6"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="15"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="16"/>
+      <c r="AK13" s="16"/>
+      <c r="AL13" s="15"/>
       <c r="AM13" s="6"/>
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
       <c r="AP13" s="6"/>
       <c r="AQ13" s="6"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="15"/>
       <c r="AT13" s="6"/>
       <c r="AU13" s="6"/>
       <c r="AV13" s="6"/>
       <c r="AW13" s="6"/>
       <c r="AX13" s="6"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="15"/>
       <c r="BA13" s="6"/>
       <c r="BB13" s="6"/>
       <c r="BC13" s="6"/>
       <c r="BD13" s="6"/>
       <c r="BE13" s="6"/>
-      <c r="BF13" s="17"/>
-      <c r="BG13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="15"/>
       <c r="BH13" s="6"/>
       <c r="BI13" s="6"/>
       <c r="BJ13" s="6"/>
       <c r="BK13" s="6"/>
       <c r="BL13" s="6"/>
-      <c r="BM13" s="17"/>
+      <c r="BM13" s="16"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="6"/>
       <c r="BP13" s="6"/>
       <c r="BQ13" s="6"/>
       <c r="BR13" s="6"/>
-      <c r="BS13" s="12"/>
+      <c r="BS13" s="11"/>
     </row>
     <row r="14" spans="1:72">
       <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="15"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="15"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="15"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="16"/>
+      <c r="AK14" s="16"/>
+      <c r="AL14" s="15"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6"/>
       <c r="AP14" s="6"/>
       <c r="AQ14" s="6"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="15"/>
       <c r="AT14" s="6"/>
       <c r="AU14" s="6"/>
       <c r="AV14" s="6"/>
       <c r="AW14" s="6"/>
       <c r="AX14" s="6"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="16"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="15"/>
       <c r="BA14" s="6"/>
       <c r="BB14" s="6"/>
       <c r="BC14" s="6"/>
       <c r="BD14" s="6"/>
       <c r="BE14" s="6"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="16"/>
+      <c r="BF14" s="16"/>
+      <c r="BG14" s="15"/>
       <c r="BH14" s="6"/>
       <c r="BI14" s="6"/>
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
-      <c r="BM14" s="17"/>
+      <c r="BM14" s="16"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
       <c r="BQ14" s="6"/>
       <c r="BR14" s="6"/>
-      <c r="BS14" s="12"/>
+      <c r="BS14" s="11"/>
     </row>
     <row r="15" spans="1:72">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="15"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="15"/>
       <c r="Y15" s="6"/>
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="15"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="16"/>
+      <c r="AK15" s="16"/>
+      <c r="AL15" s="15"/>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="6"/>
       <c r="AP15" s="6"/>
       <c r="AQ15" s="6"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="16"/>
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="15"/>
       <c r="AT15" s="6"/>
       <c r="AU15" s="6"/>
       <c r="AV15" s="6"/>
       <c r="AW15" s="6"/>
       <c r="AX15" s="6"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="15"/>
       <c r="BA15" s="6"/>
       <c r="BB15" s="6"/>
       <c r="BC15" s="6"/>
       <c r="BD15" s="6"/>
       <c r="BE15" s="6"/>
-      <c r="BF15" s="17"/>
-      <c r="BG15" s="16"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="15"/>
       <c r="BH15" s="6"/>
       <c r="BI15" s="6"/>
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
       <c r="BL15" s="6"/>
-      <c r="BM15" s="17"/>
+      <c r="BM15" s="16"/>
       <c r="BN15" s="6"/>
       <c r="BO15" s="6"/>
       <c r="BP15" s="6"/>
       <c r="BQ15" s="6"/>
       <c r="BR15" s="6"/>
-      <c r="BS15" s="12"/>
+      <c r="BS15" s="11"/>
     </row>
     <row r="16" spans="1:72">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="16"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="15"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
       <c r="AC16" s="6"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="15"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="16"/>
+      <c r="AK16" s="16"/>
+      <c r="AL16" s="15"/>
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
       <c r="AP16" s="6"/>
       <c r="AQ16" s="6"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="16"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="15"/>
       <c r="AT16" s="6"/>
       <c r="AU16" s="6"/>
       <c r="AV16" s="6"/>
       <c r="AW16" s="6"/>
       <c r="AX16" s="6"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="15"/>
       <c r="BA16" s="6"/>
       <c r="BB16" s="6"/>
       <c r="BC16" s="6"/>
       <c r="BD16" s="6"/>
       <c r="BE16" s="6"/>
-      <c r="BF16" s="17"/>
-      <c r="BG16" s="16"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="15"/>
       <c r="BH16" s="6"/>
       <c r="BI16" s="6"/>
       <c r="BJ16" s="6"/>
       <c r="BK16" s="6"/>
       <c r="BL16" s="6"/>
-      <c r="BM16" s="17"/>
+      <c r="BM16" s="16"/>
       <c r="BN16" s="6"/>
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
       <c r="BQ16" s="6"/>
       <c r="BR16" s="6"/>
-      <c r="BS16" s="12"/>
+      <c r="BS16" s="11"/>
     </row>
     <row r="17" spans="1:71">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="16"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="15"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="15"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
       <c r="AC17" s="6"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="16"/>
+      <c r="AD17" s="16"/>
+      <c r="AE17" s="15"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="16"/>
+      <c r="AK17" s="16"/>
+      <c r="AL17" s="15"/>
       <c r="AM17" s="6"/>
       <c r="AN17" s="6"/>
       <c r="AO17" s="6"/>
       <c r="AP17" s="6"/>
       <c r="AQ17" s="6"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="15"/>
       <c r="AT17" s="6"/>
       <c r="AU17" s="6"/>
       <c r="AV17" s="6"/>
       <c r="AW17" s="6"/>
       <c r="AX17" s="6"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="15"/>
       <c r="BA17" s="6"/>
       <c r="BB17" s="6"/>
       <c r="BC17" s="6"/>
       <c r="BD17" s="6"/>
       <c r="BE17" s="6"/>
-      <c r="BF17" s="17"/>
-      <c r="BG17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="15"/>
       <c r="BH17" s="6"/>
       <c r="BI17" s="6"/>
       <c r="BJ17" s="6"/>
       <c r="BK17" s="6"/>
       <c r="BL17" s="6"/>
-      <c r="BM17" s="17"/>
+      <c r="BM17" s="16"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="6"/>
       <c r="BP17" s="6"/>
       <c r="BQ17" s="6"/>
       <c r="BR17" s="6"/>
-      <c r="BS17" s="12"/>
+      <c r="BS17" s="11"/>
     </row>
     <row r="18" spans="1:71">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="16"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="15"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="15"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
       <c r="AC18" s="6"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="16"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="15"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="15"/>
       <c r="AM18" s="6"/>
       <c r="AN18" s="6"/>
       <c r="AO18" s="6"/>
       <c r="AP18" s="6"/>
       <c r="AQ18" s="6"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="15"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
       <c r="AV18" s="6"/>
       <c r="AW18" s="6"/>
       <c r="AX18" s="6"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="15"/>
       <c r="BA18" s="6"/>
       <c r="BB18" s="6"/>
       <c r="BC18" s="6"/>
       <c r="BD18" s="6"/>
       <c r="BE18" s="6"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="16"/>
+      <c r="BF18" s="16"/>
+      <c r="BG18" s="15"/>
       <c r="BH18" s="6"/>
       <c r="BI18" s="6"/>
       <c r="BJ18" s="6"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
-      <c r="BM18" s="17"/>
+      <c r="BM18" s="16"/>
       <c r="BN18" s="6"/>
       <c r="BO18" s="6"/>
       <c r="BP18" s="6"/>
       <c r="BQ18" s="6"/>
       <c r="BR18" s="6"/>
-      <c r="BS18" s="12"/>
+      <c r="BS18" s="11"/>
     </row>
     <row r="19" spans="1:71">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="16"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="15"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="15"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="16"/>
+      <c r="AD19" s="16"/>
+      <c r="AE19" s="15"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="16"/>
+      <c r="AK19" s="16"/>
+      <c r="AL19" s="15"/>
       <c r="AM19" s="6"/>
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
       <c r="AP19" s="6"/>
       <c r="AQ19" s="6"/>
-      <c r="AR19" s="17"/>
-      <c r="AS19" s="16"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="15"/>
       <c r="AT19" s="6"/>
       <c r="AU19" s="6"/>
       <c r="AV19" s="6"/>
       <c r="AW19" s="6"/>
       <c r="AX19" s="6"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="16"/>
+      <c r="AY19" s="16"/>
+      <c r="AZ19" s="15"/>
       <c r="BA19" s="6"/>
       <c r="BB19" s="6"/>
       <c r="BC19" s="6"/>
       <c r="BD19" s="6"/>
       <c r="BE19" s="6"/>
-      <c r="BF19" s="17"/>
-      <c r="BG19" s="16"/>
+      <c r="BF19" s="16"/>
+      <c r="BG19" s="15"/>
       <c r="BH19" s="6"/>
       <c r="BI19" s="6"/>
       <c r="BJ19" s="6"/>
       <c r="BK19" s="6"/>
       <c r="BL19" s="6"/>
-      <c r="BM19" s="17"/>
+      <c r="BM19" s="16"/>
       <c r="BN19" s="6"/>
       <c r="BO19" s="6"/>
       <c r="BP19" s="6"/>
       <c r="BQ19" s="6"/>
       <c r="BR19" s="6"/>
-      <c r="BS19" s="12"/>
+      <c r="BS19" s="11"/>
     </row>
     <row r="20" spans="1:71">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="16"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="15"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="15"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="16"/>
+      <c r="AD20" s="16"/>
+      <c r="AE20" s="15"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
       <c r="AH20" s="6"/>
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="16"/>
+      <c r="AK20" s="16"/>
+      <c r="AL20" s="15"/>
       <c r="AM20" s="6"/>
       <c r="AN20" s="6"/>
       <c r="AO20" s="6"/>
       <c r="AP20" s="6"/>
       <c r="AQ20" s="6"/>
-      <c r="AR20" s="17"/>
-      <c r="AS20" s="16"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="15"/>
       <c r="AT20" s="6"/>
       <c r="AU20" s="6"/>
       <c r="AV20" s="6"/>
       <c r="AW20" s="6"/>
       <c r="AX20" s="6"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="15"/>
       <c r="BA20" s="6"/>
       <c r="BB20" s="6"/>
       <c r="BC20" s="6"/>
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
-      <c r="BF20" s="17"/>
-      <c r="BG20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="15"/>
       <c r="BH20" s="6"/>
       <c r="BI20" s="6"/>
       <c r="BJ20" s="6"/>
       <c r="BK20" s="6"/>
       <c r="BL20" s="6"/>
-      <c r="BM20" s="17"/>
+      <c r="BM20" s="16"/>
       <c r="BN20" s="6"/>
       <c r="BO20" s="6"/>
       <c r="BP20" s="6"/>
       <c r="BQ20" s="6"/>
       <c r="BR20" s="6"/>
-      <c r="BS20" s="12"/>
+      <c r="BS20" s="11"/>
     </row>
     <row r="21" spans="1:71">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="16"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="15"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="15"/>
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="15"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="16"/>
+      <c r="AK21" s="16"/>
+      <c r="AL21" s="15"/>
       <c r="AM21" s="6"/>
       <c r="AN21" s="6"/>
       <c r="AO21" s="6"/>
       <c r="AP21" s="6"/>
       <c r="AQ21" s="6"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="16"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="15"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
       <c r="AV21" s="6"/>
       <c r="AW21" s="6"/>
       <c r="AX21" s="6"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="16"/>
+      <c r="AY21" s="16"/>
+      <c r="AZ21" s="15"/>
       <c r="BA21" s="6"/>
       <c r="BB21" s="6"/>
       <c r="BC21" s="6"/>
       <c r="BD21" s="6"/>
       <c r="BE21" s="6"/>
-      <c r="BF21" s="17"/>
-      <c r="BG21" s="16"/>
+      <c r="BF21" s="16"/>
+      <c r="BG21" s="15"/>
       <c r="BH21" s="6"/>
       <c r="BI21" s="6"/>
       <c r="BJ21" s="6"/>
       <c r="BK21" s="6"/>
       <c r="BL21" s="6"/>
-      <c r="BM21" s="17"/>
+      <c r="BM21" s="16"/>
       <c r="BN21" s="6"/>
       <c r="BO21" s="6"/>
       <c r="BP21" s="6"/>
       <c r="BQ21" s="6"/>
       <c r="BR21" s="6"/>
-      <c r="BS21" s="12"/>
+      <c r="BS21" s="11"/>
     </row>
     <row r="22" spans="1:71">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="15"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="15"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="15"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="16"/>
+      <c r="AK22" s="16"/>
+      <c r="AL22" s="15"/>
       <c r="AM22" s="6"/>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
       <c r="AP22" s="6"/>
       <c r="AQ22" s="6"/>
-      <c r="AR22" s="17"/>
-      <c r="AS22" s="16"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="15"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
       <c r="AV22" s="6"/>
       <c r="AW22" s="6"/>
       <c r="AX22" s="6"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="16"/>
+      <c r="AY22" s="16"/>
+      <c r="AZ22" s="15"/>
       <c r="BA22" s="6"/>
       <c r="BB22" s="6"/>
       <c r="BC22" s="6"/>
       <c r="BD22" s="6"/>
       <c r="BE22" s="6"/>
-      <c r="BF22" s="17"/>
-      <c r="BG22" s="16"/>
+      <c r="BF22" s="16"/>
+      <c r="BG22" s="15"/>
       <c r="BH22" s="6"/>
       <c r="BI22" s="6"/>
       <c r="BJ22" s="6"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="6"/>
-      <c r="BM22" s="17"/>
+      <c r="BM22" s="16"/>
       <c r="BN22" s="6"/>
       <c r="BO22" s="6"/>
       <c r="BP22" s="6"/>
       <c r="BQ22" s="6"/>
       <c r="BR22" s="6"/>
-      <c r="BS22" s="12"/>
+      <c r="BS22" s="11"/>
     </row>
     <row r="23" spans="1:71">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="15"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
-      <c r="AD23" s="17"/>
-      <c r="AE23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="15"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
       <c r="AH23" s="6"/>
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
-      <c r="AK23" s="17"/>
-      <c r="AL23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="15"/>
       <c r="AM23" s="6"/>
       <c r="AN23" s="6"/>
       <c r="AO23" s="6"/>
       <c r="AP23" s="6"/>
       <c r="AQ23" s="6"/>
-      <c r="AR23" s="17"/>
-      <c r="AS23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="15"/>
       <c r="AT23" s="6"/>
       <c r="AU23" s="6"/>
       <c r="AV23" s="6"/>
       <c r="AW23" s="6"/>
       <c r="AX23" s="6"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="16"/>
+      <c r="AY23" s="16"/>
+      <c r="AZ23" s="15"/>
       <c r="BA23" s="6"/>
       <c r="BB23" s="6"/>
       <c r="BC23" s="6"/>
       <c r="BD23" s="6"/>
       <c r="BE23" s="6"/>
-      <c r="BF23" s="17"/>
-      <c r="BG23" s="16"/>
+      <c r="BF23" s="16"/>
+      <c r="BG23" s="15"/>
       <c r="BH23" s="6"/>
       <c r="BI23" s="6"/>
       <c r="BJ23" s="6"/>
       <c r="BK23" s="6"/>
       <c r="BL23" s="6"/>
-      <c r="BM23" s="17"/>
+      <c r="BM23" s="16"/>
       <c r="BN23" s="6"/>
       <c r="BO23" s="6"/>
       <c r="BP23" s="6"/>
       <c r="BQ23" s="6"/>
       <c r="BR23" s="6"/>
-      <c r="BS23" s="12"/>
+      <c r="BS23" s="11"/>
     </row>
     <row r="24" spans="1:71">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="16"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="15"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="15"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="15"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
-      <c r="AK24" s="17"/>
-      <c r="AL24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="15"/>
       <c r="AM24" s="6"/>
       <c r="AN24" s="6"/>
       <c r="AO24" s="6"/>
       <c r="AP24" s="6"/>
       <c r="AQ24" s="6"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="15"/>
       <c r="AT24" s="6"/>
       <c r="AU24" s="6"/>
       <c r="AV24" s="6"/>
       <c r="AW24" s="6"/>
       <c r="AX24" s="6"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="16"/>
+      <c r="AY24" s="16"/>
+      <c r="AZ24" s="15"/>
       <c r="BA24" s="6"/>
       <c r="BB24" s="6"/>
       <c r="BC24" s="6"/>
       <c r="BD24" s="6"/>
       <c r="BE24" s="6"/>
-      <c r="BF24" s="17"/>
-      <c r="BG24" s="16"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="15"/>
       <c r="BH24" s="6"/>
       <c r="BI24" s="6"/>
       <c r="BJ24" s="6"/>
       <c r="BK24" s="6"/>
       <c r="BL24" s="6"/>
-      <c r="BM24" s="17"/>
+      <c r="BM24" s="16"/>
       <c r="BN24" s="6"/>
       <c r="BO24" s="6"/>
       <c r="BP24" s="6"/>
       <c r="BQ24" s="6"/>
       <c r="BR24" s="6"/>
-      <c r="BS24" s="12"/>
+      <c r="BS24" s="11"/>
     </row>
     <row r="25" spans="1:71">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="16"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="15"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="15"/>
       <c r="Y25" s="6"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="16"/>
+      <c r="AD25" s="16"/>
+      <c r="AE25" s="15"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="16"/>
+      <c r="AK25" s="16"/>
+      <c r="AL25" s="15"/>
       <c r="AM25" s="6"/>
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
       <c r="AP25" s="6"/>
       <c r="AQ25" s="6"/>
-      <c r="AR25" s="17"/>
-      <c r="AS25" s="16"/>
+      <c r="AR25" s="16"/>
+      <c r="AS25" s="15"/>
       <c r="AT25" s="6"/>
       <c r="AU25" s="6"/>
       <c r="AV25" s="6"/>
       <c r="AW25" s="6"/>
       <c r="AX25" s="6"/>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="16"/>
+      <c r="AY25" s="16"/>
+      <c r="AZ25" s="15"/>
       <c r="BA25" s="6"/>
       <c r="BB25" s="6"/>
       <c r="BC25" s="6"/>
       <c r="BD25" s="6"/>
       <c r="BE25" s="6"/>
-      <c r="BF25" s="17"/>
-      <c r="BG25" s="16"/>
+      <c r="BF25" s="16"/>
+      <c r="BG25" s="15"/>
       <c r="BH25" s="6"/>
       <c r="BI25" s="6"/>
       <c r="BJ25" s="6"/>
       <c r="BK25" s="6"/>
       <c r="BL25" s="6"/>
-      <c r="BM25" s="17"/>
+      <c r="BM25" s="16"/>
       <c r="BN25" s="6"/>
       <c r="BO25" s="6"/>
       <c r="BP25" s="6"/>
       <c r="BQ25" s="6"/>
       <c r="BR25" s="6"/>
-      <c r="BS25" s="12"/>
+      <c r="BS25" s="11"/>
     </row>
     <row r="26" spans="1:71">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="16"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="15"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="15"/>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
       <c r="AC26" s="6"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="16"/>
+      <c r="AD26" s="16"/>
+      <c r="AE26" s="15"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
-      <c r="AK26" s="17"/>
-      <c r="AL26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="15"/>
       <c r="AM26" s="6"/>
       <c r="AN26" s="6"/>
       <c r="AO26" s="6"/>
       <c r="AP26" s="6"/>
       <c r="AQ26" s="6"/>
-      <c r="AR26" s="17"/>
-      <c r="AS26" s="16"/>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="15"/>
       <c r="AT26" s="6"/>
       <c r="AU26" s="6"/>
       <c r="AV26" s="6"/>
       <c r="AW26" s="6"/>
       <c r="AX26" s="6"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="15"/>
       <c r="BA26" s="6"/>
       <c r="BB26" s="6"/>
       <c r="BC26" s="6"/>
       <c r="BD26" s="6"/>
       <c r="BE26" s="6"/>
-      <c r="BF26" s="17"/>
-      <c r="BG26" s="16"/>
+      <c r="BF26" s="16"/>
+      <c r="BG26" s="15"/>
       <c r="BH26" s="6"/>
       <c r="BI26" s="6"/>
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="6"/>
-      <c r="BM26" s="17"/>
+      <c r="BM26" s="16"/>
       <c r="BN26" s="6"/>
       <c r="BO26" s="6"/>
       <c r="BP26" s="6"/>
       <c r="BQ26" s="6"/>
       <c r="BR26" s="6"/>
-      <c r="BS26" s="12"/>
+      <c r="BS26" s="11"/>
     </row>
     <row r="27" spans="1:71">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="15"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="15"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="15"/>
       <c r="Y27" s="6"/>
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="15"/>
       <c r="AF27" s="6"/>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6"/>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
-      <c r="AK27" s="17"/>
-      <c r="AL27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="15"/>
       <c r="AM27" s="6"/>
       <c r="AN27" s="6"/>
       <c r="AO27" s="6"/>
       <c r="AP27" s="6"/>
       <c r="AQ27" s="6"/>
-      <c r="AR27" s="17"/>
-      <c r="AS27" s="16"/>
+      <c r="AR27" s="16"/>
+      <c r="AS27" s="15"/>
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
       <c r="AV27" s="6"/>
       <c r="AW27" s="6"/>
       <c r="AX27" s="6"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="15"/>
       <c r="BA27" s="6"/>
       <c r="BB27" s="6"/>
       <c r="BC27" s="6"/>
       <c r="BD27" s="6"/>
       <c r="BE27" s="6"/>
-      <c r="BF27" s="17"/>
-      <c r="BG27" s="16"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="15"/>
       <c r="BH27" s="6"/>
       <c r="BI27" s="6"/>
       <c r="BJ27" s="6"/>
       <c r="BK27" s="6"/>
       <c r="BL27" s="6"/>
-      <c r="BM27" s="17"/>
+      <c r="BM27" s="16"/>
       <c r="BN27" s="6"/>
       <c r="BO27" s="6"/>
       <c r="BP27" s="6"/>
       <c r="BQ27" s="6"/>
       <c r="BR27" s="6"/>
-      <c r="BS27" s="12"/>
+      <c r="BS27" s="11"/>
     </row>
     <row r="28" spans="1:71">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="15"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="15"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="15"/>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
       <c r="AA28" s="6"/>
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="15"/>
       <c r="AF28" s="6"/>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6"/>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
-      <c r="AK28" s="17"/>
-      <c r="AL28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="15"/>
       <c r="AM28" s="6"/>
       <c r="AN28" s="6"/>
       <c r="AO28" s="6"/>
       <c r="AP28" s="6"/>
       <c r="AQ28" s="6"/>
-      <c r="AR28" s="17"/>
-      <c r="AS28" s="16"/>
+      <c r="AR28" s="16"/>
+      <c r="AS28" s="15"/>
       <c r="AT28" s="6"/>
       <c r="AU28" s="6"/>
       <c r="AV28" s="6"/>
       <c r="AW28" s="6"/>
       <c r="AX28" s="6"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="16"/>
+      <c r="AY28" s="16"/>
+      <c r="AZ28" s="15"/>
       <c r="BA28" s="6"/>
       <c r="BB28" s="6"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="6"/>
       <c r="BE28" s="6"/>
-      <c r="BF28" s="17"/>
-      <c r="BG28" s="16"/>
+      <c r="BF28" s="16"/>
+      <c r="BG28" s="15"/>
       <c r="BH28" s="6"/>
       <c r="BI28" s="6"/>
       <c r="BJ28" s="6"/>
       <c r="BK28" s="6"/>
       <c r="BL28" s="6"/>
-      <c r="BM28" s="17"/>
+      <c r="BM28" s="16"/>
       <c r="BN28" s="6"/>
       <c r="BO28" s="6"/>
       <c r="BP28" s="6"/>
       <c r="BQ28" s="6"/>
       <c r="BR28" s="6"/>
-      <c r="BS28" s="12"/>
+      <c r="BS28" s="11"/>
     </row>
     <row r="29" spans="1:71">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="16"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="15"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="15"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="15"/>
       <c r="Y29" s="6"/>
       <c r="Z29" s="6"/>
       <c r="AA29" s="6"/>
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="16"/>
+      <c r="AD29" s="16"/>
+      <c r="AE29" s="15"/>
       <c r="AF29" s="6"/>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6"/>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
-      <c r="AK29" s="17"/>
-      <c r="AL29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="15"/>
       <c r="AM29" s="6"/>
       <c r="AN29" s="6"/>
       <c r="AO29" s="6"/>
       <c r="AP29" s="6"/>
       <c r="AQ29" s="6"/>
-      <c r="AR29" s="17"/>
-      <c r="AS29" s="16"/>
+      <c r="AR29" s="16"/>
+      <c r="AS29" s="15"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="6"/>
       <c r="AV29" s="6"/>
       <c r="AW29" s="6"/>
       <c r="AX29" s="6"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="16"/>
+      <c r="AY29" s="16"/>
+      <c r="AZ29" s="15"/>
       <c r="BA29" s="6"/>
       <c r="BB29" s="6"/>
       <c r="BC29" s="6"/>
       <c r="BD29" s="6"/>
       <c r="BE29" s="6"/>
-      <c r="BF29" s="17"/>
-      <c r="BG29" s="16"/>
+      <c r="BF29" s="16"/>
+      <c r="BG29" s="15"/>
       <c r="BH29" s="6"/>
       <c r="BI29" s="6"/>
       <c r="BJ29" s="6"/>
       <c r="BK29" s="6"/>
       <c r="BL29" s="6"/>
-      <c r="BM29" s="17"/>
+      <c r="BM29" s="16"/>
       <c r="BN29" s="6"/>
       <c r="BO29" s="6"/>
       <c r="BP29" s="6"/>
       <c r="BQ29" s="6"/>
       <c r="BR29" s="6"/>
-      <c r="BS29" s="12"/>
+      <c r="BS29" s="11"/>
     </row>
     <row r="30" spans="1:71">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="16"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="15"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="15"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="15"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="15"/>
       <c r="AF30" s="6"/>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
-      <c r="AK30" s="17"/>
-      <c r="AL30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="15"/>
       <c r="AM30" s="6"/>
       <c r="AN30" s="6"/>
       <c r="AO30" s="6"/>
       <c r="AP30" s="6"/>
       <c r="AQ30" s="6"/>
-      <c r="AR30" s="17"/>
-      <c r="AS30" s="16"/>
+      <c r="AR30" s="16"/>
+      <c r="AS30" s="15"/>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
       <c r="AV30" s="6"/>
       <c r="AW30" s="6"/>
       <c r="AX30" s="6"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="16"/>
+      <c r="AY30" s="16"/>
+      <c r="AZ30" s="15"/>
       <c r="BA30" s="6"/>
       <c r="BB30" s="6"/>
       <c r="BC30" s="6"/>
       <c r="BD30" s="6"/>
       <c r="BE30" s="6"/>
-      <c r="BF30" s="17"/>
-      <c r="BG30" s="16"/>
+      <c r="BF30" s="16"/>
+      <c r="BG30" s="15"/>
       <c r="BH30" s="6"/>
       <c r="BI30" s="6"/>
       <c r="BJ30" s="6"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="6"/>
-      <c r="BM30" s="17"/>
+      <c r="BM30" s="16"/>
       <c r="BN30" s="6"/>
       <c r="BO30" s="6"/>
       <c r="BP30" s="6"/>
       <c r="BQ30" s="6"/>
       <c r="BR30" s="6"/>
-      <c r="BS30" s="12"/>
+      <c r="BS30" s="11"/>
     </row>
     <row r="31" spans="1:71">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="16"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="15"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="15"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="15"/>
       <c r="Y31" s="6"/>
       <c r="Z31" s="6"/>
       <c r="AA31" s="6"/>
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="15"/>
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
-      <c r="AK31" s="17"/>
-      <c r="AL31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="15"/>
       <c r="AM31" s="6"/>
       <c r="AN31" s="6"/>
       <c r="AO31" s="6"/>
       <c r="AP31" s="6"/>
       <c r="AQ31" s="6"/>
-      <c r="AR31" s="17"/>
-      <c r="AS31" s="16"/>
+      <c r="AR31" s="16"/>
+      <c r="AS31" s="15"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
       <c r="AV31" s="6"/>
       <c r="AW31" s="6"/>
       <c r="AX31" s="6"/>
-      <c r="AY31" s="17"/>
-      <c r="AZ31" s="16"/>
+      <c r="AY31" s="16"/>
+      <c r="AZ31" s="15"/>
       <c r="BA31" s="6"/>
       <c r="BB31" s="6"/>
       <c r="BC31" s="6"/>
       <c r="BD31" s="6"/>
       <c r="BE31" s="6"/>
-      <c r="BF31" s="17"/>
-      <c r="BG31" s="16"/>
+      <c r="BF31" s="16"/>
+      <c r="BG31" s="15"/>
       <c r="BH31" s="6"/>
       <c r="BI31" s="6"/>
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="6"/>
-      <c r="BM31" s="17"/>
+      <c r="BM31" s="16"/>
       <c r="BN31" s="6"/>
       <c r="BO31" s="6"/>
       <c r="BP31" s="6"/>
       <c r="BQ31" s="6"/>
       <c r="BR31" s="6"/>
-      <c r="BS31" s="12"/>
+      <c r="BS31" s="11"/>
     </row>
     <row r="32" spans="1:71">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="15"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="15"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="15"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="15"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
       <c r="AA32" s="6"/>
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="15"/>
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6"/>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
-      <c r="AK32" s="17"/>
-      <c r="AL32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="15"/>
       <c r="AM32" s="6"/>
       <c r="AN32" s="6"/>
       <c r="AO32" s="6"/>
       <c r="AP32" s="6"/>
       <c r="AQ32" s="6"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="16"/>
+      <c r="AR32" s="16"/>
+      <c r="AS32" s="15"/>
       <c r="AT32" s="6"/>
       <c r="AU32" s="6"/>
       <c r="AV32" s="6"/>
       <c r="AW32" s="6"/>
       <c r="AX32" s="6"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="16"/>
+      <c r="AY32" s="16"/>
+      <c r="AZ32" s="15"/>
       <c r="BA32" s="6"/>
       <c r="BB32" s="6"/>
       <c r="BC32" s="6"/>
       <c r="BD32" s="6"/>
       <c r="BE32" s="6"/>
-      <c r="BF32" s="17"/>
-      <c r="BG32" s="16"/>
+      <c r="BF32" s="16"/>
+      <c r="BG32" s="15"/>
       <c r="BH32" s="6"/>
       <c r="BI32" s="6"/>
       <c r="BJ32" s="6"/>
       <c r="BK32" s="6"/>
       <c r="BL32" s="6"/>
-      <c r="BM32" s="17"/>
+      <c r="BM32" s="16"/>
       <c r="BN32" s="6"/>
       <c r="BO32" s="6"/>
       <c r="BP32" s="6"/>
       <c r="BQ32" s="6"/>
       <c r="BR32" s="6"/>
-      <c r="BS32" s="12"/>
+      <c r="BS32" s="11"/>
     </row>
     <row r="33" spans="1:71">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="16"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="15"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="15"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="15"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="15"/>
       <c r="Y33" s="6"/>
       <c r="Z33" s="6"/>
       <c r="AA33" s="6"/>
       <c r="AB33" s="6"/>
       <c r="AC33" s="6"/>
-      <c r="AD33" s="17"/>
-      <c r="AE33" s="16"/>
+      <c r="AD33" s="16"/>
+      <c r="AE33" s="15"/>
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
       <c r="AI33" s="6"/>
       <c r="AJ33" s="6"/>
-      <c r="AK33" s="17"/>
-      <c r="AL33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="15"/>
       <c r="AM33" s="6"/>
       <c r="AN33" s="6"/>
       <c r="AO33" s="6"/>
       <c r="AP33" s="6"/>
       <c r="AQ33" s="6"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="16"/>
+      <c r="AR33" s="16"/>
+      <c r="AS33" s="15"/>
       <c r="AT33" s="6"/>
       <c r="AU33" s="6"/>
       <c r="AV33" s="6"/>
       <c r="AW33" s="6"/>
       <c r="AX33" s="6"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="16"/>
+      <c r="AY33" s="16"/>
+      <c r="AZ33" s="15"/>
       <c r="BA33" s="6"/>
       <c r="BB33" s="6"/>
       <c r="BC33" s="6"/>
       <c r="BD33" s="6"/>
       <c r="BE33" s="6"/>
-      <c r="BF33" s="17"/>
-      <c r="BG33" s="16"/>
+      <c r="BF33" s="16"/>
+      <c r="BG33" s="15"/>
       <c r="BH33" s="6"/>
       <c r="BI33" s="6"/>
       <c r="BJ33" s="6"/>
       <c r="BK33" s="6"/>
       <c r="BL33" s="6"/>
-      <c r="BM33" s="17"/>
+      <c r="BM33" s="16"/>
       <c r="BN33" s="6"/>
       <c r="BO33" s="6"/>
       <c r="BP33" s="6"/>
       <c r="BQ33" s="6"/>
       <c r="BR33" s="6"/>
-      <c r="BS33" s="12"/>
+      <c r="BS33" s="11"/>
     </row>
     <row r="34" spans="1:71">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="16"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="15"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="15"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="15"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
       <c r="AA34" s="6"/>
       <c r="AB34" s="6"/>
       <c r="AC34" s="6"/>
-      <c r="AD34" s="17"/>
-      <c r="AE34" s="16"/>
+      <c r="AD34" s="16"/>
+      <c r="AE34" s="15"/>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
       <c r="AI34" s="6"/>
       <c r="AJ34" s="6"/>
-      <c r="AK34" s="17"/>
-      <c r="AL34" s="16"/>
+      <c r="AK34" s="16"/>
+      <c r="AL34" s="15"/>
       <c r="AM34" s="6"/>
       <c r="AN34" s="6"/>
       <c r="AO34" s="6"/>
       <c r="AP34" s="6"/>
       <c r="AQ34" s="6"/>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="16"/>
+      <c r="AR34" s="16"/>
+      <c r="AS34" s="15"/>
       <c r="AT34" s="6"/>
       <c r="AU34" s="6"/>
       <c r="AV34" s="6"/>
       <c r="AW34" s="6"/>
       <c r="AX34" s="6"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="16"/>
+      <c r="AY34" s="16"/>
+      <c r="AZ34" s="15"/>
       <c r="BA34" s="6"/>
       <c r="BB34" s="6"/>
       <c r="BC34" s="6"/>
       <c r="BD34" s="6"/>
       <c r="BE34" s="6"/>
-      <c r="BF34" s="17"/>
-      <c r="BG34" s="16"/>
+      <c r="BF34" s="16"/>
+      <c r="BG34" s="15"/>
       <c r="BH34" s="6"/>
       <c r="BI34" s="6"/>
       <c r="BJ34" s="6"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="6"/>
-      <c r="BM34" s="17"/>
+      <c r="BM34" s="16"/>
       <c r="BN34" s="6"/>
       <c r="BO34" s="6"/>
       <c r="BP34" s="6"/>
       <c r="BQ34" s="6"/>
       <c r="BR34" s="6"/>
-      <c r="BS34" s="12"/>
+      <c r="BS34" s="11"/>
     </row>
     <row r="35" spans="1:71">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="16"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="15"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="15"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="16"/>
+      <c r="W35" s="16"/>
+      <c r="X35" s="15"/>
       <c r="Y35" s="6"/>
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
       <c r="AB35" s="6"/>
       <c r="AC35" s="6"/>
-      <c r="AD35" s="17"/>
-      <c r="AE35" s="16"/>
+      <c r="AD35" s="16"/>
+      <c r="AE35" s="15"/>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
       <c r="AI35" s="6"/>
       <c r="AJ35" s="6"/>
-      <c r="AK35" s="17"/>
-      <c r="AL35" s="16"/>
+      <c r="AK35" s="16"/>
+      <c r="AL35" s="15"/>
       <c r="AM35" s="6"/>
       <c r="AN35" s="6"/>
       <c r="AO35" s="6"/>
       <c r="AP35" s="6"/>
       <c r="AQ35" s="6"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="16"/>
+      <c r="AR35" s="16"/>
+      <c r="AS35" s="15"/>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
       <c r="AV35" s="6"/>
       <c r="AW35" s="6"/>
       <c r="AX35" s="6"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="16"/>
+      <c r="AY35" s="16"/>
+      <c r="AZ35" s="15"/>
       <c r="BA35" s="6"/>
       <c r="BB35" s="6"/>
       <c r="BC35" s="6"/>
       <c r="BD35" s="6"/>
       <c r="BE35" s="6"/>
-      <c r="BF35" s="17"/>
-      <c r="BG35" s="16"/>
+      <c r="BF35" s="16"/>
+      <c r="BG35" s="15"/>
       <c r="BH35" s="6"/>
       <c r="BI35" s="6"/>
       <c r="BJ35" s="6"/>
       <c r="BK35" s="6"/>
       <c r="BL35" s="6"/>
-      <c r="BM35" s="17"/>
+      <c r="BM35" s="16"/>
       <c r="BN35" s="6"/>
       <c r="BO35" s="6"/>
       <c r="BP35" s="6"/>
       <c r="BQ35" s="6"/>
       <c r="BR35" s="6"/>
-      <c r="BS35" s="12"/>
+      <c r="BS35" s="11"/>
     </row>
     <row r="36" spans="1:71" ht="17.25" thickBot="1">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="45"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
-      <c r="O36" s="42"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="42"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="46"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="42"/>
-      <c r="AC36" s="42"/>
-      <c r="AD36" s="46"/>
-      <c r="AE36" s="45"/>
-      <c r="AF36" s="42"/>
-      <c r="AG36" s="42"/>
-      <c r="AH36" s="42"/>
-      <c r="AI36" s="42"/>
-      <c r="AJ36" s="42"/>
-      <c r="AK36" s="46"/>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="42"/>
-      <c r="AN36" s="42"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="46"/>
-      <c r="AS36" s="45"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="46"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="46"/>
-      <c r="BG36" s="45"/>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="42"/>
-      <c r="BL36" s="42"/>
-      <c r="BM36" s="46"/>
-      <c r="BN36" s="42"/>
-      <c r="BO36" s="42"/>
-      <c r="BP36" s="42"/>
-      <c r="BQ36" s="42"/>
-      <c r="BR36" s="42"/>
-      <c r="BS36" s="47"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="43"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41"/>
+      <c r="AB36" s="41"/>
+      <c r="AC36" s="41"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="43"/>
+      <c r="AF36" s="41"/>
+      <c r="AG36" s="41"/>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41"/>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="44"/>
+      <c r="AL36" s="43"/>
+      <c r="AM36" s="41"/>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="41"/>
+      <c r="AP36" s="41"/>
+      <c r="AQ36" s="41"/>
+      <c r="AR36" s="44"/>
+      <c r="AS36" s="43"/>
+      <c r="AT36" s="41"/>
+      <c r="AU36" s="41"/>
+      <c r="AV36" s="41"/>
+      <c r="AW36" s="41"/>
+      <c r="AX36" s="41"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="43"/>
+      <c r="BA36" s="41"/>
+      <c r="BB36" s="41"/>
+      <c r="BC36" s="41"/>
+      <c r="BD36" s="41"/>
+      <c r="BE36" s="41"/>
+      <c r="BF36" s="44"/>
+      <c r="BG36" s="43"/>
+      <c r="BH36" s="41"/>
+      <c r="BI36" s="41"/>
+      <c r="BJ36" s="41"/>
+      <c r="BK36" s="41"/>
+      <c r="BL36" s="41"/>
+      <c r="BM36" s="44"/>
+      <c r="BN36" s="41"/>
+      <c r="BO36" s="41"/>
+      <c r="BP36" s="41"/>
+      <c r="BQ36" s="41"/>
+      <c r="BR36" s="41"/>
+      <c r="BS36" s="45"/>
     </row>
     <row r="37" spans="1:71">
-      <c r="A37" s="66"/>
-      <c r="B37" s="63" t="s">
+      <c r="A37" s="64"/>
+      <c r="B37" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
+      <c r="AY37" s="46"/>
+      <c r="AZ37" s="46"/>
+      <c r="BA37" s="46"/>
+      <c r="BB37" s="46"/>
+      <c r="BC37" s="46"/>
+      <c r="BD37" s="46"/>
+      <c r="BE37" s="46"/>
+      <c r="BF37" s="46"/>
+      <c r="BG37" s="46"/>
+      <c r="BH37" s="46"/>
+      <c r="BI37" s="46"/>
+      <c r="BJ37" s="46"/>
+      <c r="BK37" s="46"/>
+      <c r="BL37" s="46"/>
+      <c r="BM37" s="46"/>
+      <c r="BN37" s="46"/>
+      <c r="BO37" s="46"/>
+      <c r="BP37" s="46"/>
+      <c r="BQ37" s="46"/>
+      <c r="BR37" s="46"/>
+      <c r="BS37" s="49"/>
+    </row>
+    <row r="38" spans="1:71">
+      <c r="A38" s="65"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
-      <c r="AM37" s="48"/>
-      <c r="AN37" s="48"/>
-      <c r="AO37" s="48"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="48"/>
-      <c r="AR37" s="48"/>
-      <c r="AS37" s="48"/>
-      <c r="AT37" s="48"/>
-      <c r="AU37" s="48"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="48"/>
-      <c r="AX37" s="48"/>
-      <c r="AY37" s="48"/>
-      <c r="AZ37" s="48"/>
-      <c r="BA37" s="48"/>
-      <c r="BB37" s="48"/>
-      <c r="BC37" s="48"/>
-      <c r="BD37" s="48"/>
-      <c r="BE37" s="48"/>
-      <c r="BF37" s="48"/>
-      <c r="BG37" s="48"/>
-      <c r="BH37" s="48"/>
-      <c r="BI37" s="48"/>
-      <c r="BJ37" s="48"/>
-      <c r="BK37" s="48"/>
-      <c r="BL37" s="48"/>
-      <c r="BM37" s="48"/>
-      <c r="BN37" s="48"/>
-      <c r="BO37" s="48"/>
-      <c r="BP37" s="48"/>
-      <c r="BQ37" s="48"/>
-      <c r="BR37" s="48"/>
-      <c r="BS37" s="51"/>
-    </row>
-    <row r="38" spans="1:71">
-      <c r="A38" s="67"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="37"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -4544,12 +4727,12 @@
       <c r="AU38" s="6"/>
       <c r="AV38" s="6"/>
       <c r="AW38" s="6"/>
-      <c r="AX38" s="41"/>
-      <c r="AY38" s="41"/>
-      <c r="AZ38" s="41"/>
-      <c r="BA38" s="41"/>
-      <c r="BB38" s="41"/>
-      <c r="BC38" s="41"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="40"/>
+      <c r="BB38" s="40"/>
+      <c r="BC38" s="40"/>
       <c r="BD38" s="6"/>
       <c r="BE38" s="6"/>
       <c r="BF38" s="6"/>
@@ -4565,88 +4748,93 @@
       <c r="BP38" s="6"/>
       <c r="BQ38" s="6"/>
       <c r="BR38" s="6"/>
-      <c r="BS38" s="17"/>
+      <c r="BS38" s="16"/>
     </row>
     <row r="39" spans="1:71" ht="17.25" thickBot="1">
-      <c r="A39" s="68"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="53"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="52"/>
-      <c r="Q39" s="52"/>
-      <c r="R39" s="52"/>
-      <c r="S39" s="52"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="52"/>
-      <c r="AG39" s="52"/>
-      <c r="AH39" s="52"/>
-      <c r="AI39" s="52"/>
-      <c r="AJ39" s="52"/>
-      <c r="AK39" s="52"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="52"/>
-      <c r="AN39" s="52"/>
-      <c r="AO39" s="52"/>
-      <c r="AP39" s="52"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="52"/>
-      <c r="AS39" s="52"/>
-      <c r="AT39" s="52"/>
-      <c r="AU39" s="52"/>
-      <c r="AV39" s="52"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="52"/>
-      <c r="AY39" s="52"/>
-      <c r="AZ39" s="52"/>
-      <c r="BA39" s="52"/>
-      <c r="BB39" s="52"/>
-      <c r="BC39" s="52"/>
-      <c r="BD39" s="52"/>
-      <c r="BE39" s="52"/>
-      <c r="BF39" s="52"/>
-      <c r="BG39" s="52"/>
-      <c r="BH39" s="52"/>
-      <c r="BI39" s="52"/>
-      <c r="BJ39" s="52"/>
-      <c r="BK39" s="52"/>
-      <c r="BL39" s="52"/>
-      <c r="BM39" s="52"/>
-      <c r="BN39" s="52"/>
-      <c r="BO39" s="52"/>
-      <c r="BP39" s="52"/>
-      <c r="BQ39" s="52"/>
-      <c r="BR39" s="52"/>
-      <c r="BS39" s="54"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="50"/>
+      <c r="O39" s="50"/>
+      <c r="P39" s="50"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="50"/>
+      <c r="S39" s="50"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="50"/>
+      <c r="V39" s="50"/>
+      <c r="W39" s="50"/>
+      <c r="X39" s="50"/>
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AE39" s="50"/>
+      <c r="AF39" s="50"/>
+      <c r="AG39" s="50"/>
+      <c r="AH39" s="50"/>
+      <c r="AI39" s="50"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
+      <c r="AP39" s="50"/>
+      <c r="AQ39" s="50"/>
+      <c r="AR39" s="50"/>
+      <c r="AS39" s="50"/>
+      <c r="AT39" s="50"/>
+      <c r="AU39" s="50"/>
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="50"/>
+      <c r="AX39" s="50"/>
+      <c r="AY39" s="50"/>
+      <c r="AZ39" s="50"/>
+      <c r="BA39" s="50"/>
+      <c r="BB39" s="50"/>
+      <c r="BC39" s="50"/>
+      <c r="BD39" s="50"/>
+      <c r="BE39" s="50"/>
+      <c r="BF39" s="50"/>
+      <c r="BG39" s="50"/>
+      <c r="BH39" s="50"/>
+      <c r="BI39" s="50"/>
+      <c r="BJ39" s="50"/>
+      <c r="BK39" s="50"/>
+      <c r="BL39" s="50"/>
+      <c r="BM39" s="50"/>
+      <c r="BN39" s="50"/>
+      <c r="BO39" s="50"/>
+      <c r="BP39" s="50"/>
+      <c r="BQ39" s="50"/>
+      <c r="BR39" s="50"/>
+      <c r="BS39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="AZ3:BF3"/>
+    <mergeCell ref="BG3:BM3"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="K1:AO1"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="B37:B39"/>
     <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A5:A7"/>
     <mergeCell ref="E2:BS2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
@@ -4660,11 +4848,6 @@
     <mergeCell ref="AE3:AK3"/>
     <mergeCell ref="AL3:AR3"/>
     <mergeCell ref="AS3:AY3"/>
-    <mergeCell ref="AZ3:BF3"/>
-    <mergeCell ref="BG3:BM3"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:AO1"/>
-    <mergeCell ref="C5:C7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4677,8 +4860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4688,398 +4871,398 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="30"/>
+      <c r="B2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="28">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="2:14" ht="13.5" customHeight="1">
-      <c r="B10" s="19" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="25">
+        <v>500</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="19"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="25">
+        <v>500</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="2:14" ht="17.25" thickBot="1">
+      <c r="B15" s="18"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="20"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-    </row>
-    <row r="11" spans="2:14" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21"/>
-    </row>
-    <row r="12" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="29" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="2:14" ht="42.75">
+      <c r="B20" s="18"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="21"/>
-    </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19" t="s">
+      <c r="E20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" s="24"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="18"/>
+      <c r="C21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" s="18"/>
+      <c r="C22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="26">
-        <v>500</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="26">
-        <v>500</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="21"/>
-    </row>
-    <row r="15" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B15" s="19"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="21"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="21"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="21"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="21"/>
-    </row>
-    <row r="20" spans="2:14" ht="42.75">
-      <c r="B20" s="19"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="21"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="19"/>
-      <c r="C21" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="21"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="19"/>
-      <c r="C22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="21"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5090,17 +5273,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
-    <col min="3" max="3" width="79.75" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="53.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="70.375" customWidth="1"/>
   </cols>
@@ -5113,132 +5296,220 @@
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="33">
-      <c r="A2" s="7"/>
-      <c r="B2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7"/>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="33">
-      <c r="A4" s="7"/>
-      <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>91</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" s="7"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
-        <v>77</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5">
-        <v>78</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5">
-        <v>79</v>
+      <c r="A16" s="7">
+        <v>13</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -5322,14 +5593,10 @@
       <c r="D27" s="7"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:B14"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5340,7 +5607,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
